--- a/야구K6_ItemTablev1.0.12.xlsx
+++ b/야구K6_ItemTablev1.0.12.xlsx
@@ -805,6 +805,94 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 99%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y107" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조각을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분해해서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>볼로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만들기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (80%)</t>
         </r>
       </text>
     </comment>
@@ -1738,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A416" authorId="1" shapeId="0">
+    <comment ref="A424" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1759,7 +1847,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="846">
   <si>
     <t>//</t>
   </si>
@@ -4493,6 +4581,72 @@
   </si>
   <si>
     <t>5000에서 1000만 다이아에 코치의 조언`감독의 조언`응원의 소리 1장씩 지급됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(gamecost)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼 소량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼 뭉치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼 주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 볼 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 볼 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 볼 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball01</t>
+  </si>
+  <si>
+    <t>ball02</t>
+  </si>
+  <si>
+    <t>ball03</t>
+  </si>
+  <si>
+    <t>ball04</t>
+  </si>
+  <si>
+    <t>ball05</t>
+  </si>
+  <si>
+    <t>ball06</t>
+  </si>
+  <si>
+    <t>분해시gamecost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartpercent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6670,12 +6824,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC486"/>
+  <dimension ref="A1:AC494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="16" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F385" sqref="F385"/>
+      <selection pane="bottomLeft" activeCell="E416" sqref="E416:F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -14643,7 +14797,9 @@
       </c>
       <c r="W107" s="26"/>
       <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
+      <c r="Y107" s="26" t="s">
+        <v>844</v>
+      </c>
       <c r="Z107" s="26"/>
       <c r="AA107" s="26"/>
       <c r="AB107" s="26"/>
@@ -14722,7 +14878,9 @@
       <c r="X108" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y108" s="10"/>
+      <c r="Y108" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
@@ -14799,6 +14957,9 @@
       <c r="X109" s="48">
         <v>99</v>
       </c>
+      <c r="Y109" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="110" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="47"/>
@@ -14872,6 +15033,9 @@
       <c r="X110" s="48">
         <v>99</v>
       </c>
+      <c r="Y110" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="111" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47"/>
@@ -14945,6 +15109,9 @@
       <c r="X111" s="48">
         <v>99</v>
       </c>
+      <c r="Y111" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="112" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="47"/>
@@ -15018,8 +15185,11 @@
       <c r="X112" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y112" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="47"/>
       <c r="B113" s="16">
         <v>1504</v>
@@ -15091,8 +15261,11 @@
       <c r="X113" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y113" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="47"/>
       <c r="B114" s="16">
         <v>1505</v>
@@ -15164,8 +15337,11 @@
       <c r="X114" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y114" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="47"/>
       <c r="B115" s="16">
         <v>1506</v>
@@ -15237,8 +15413,11 @@
       <c r="X115" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y115" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="47"/>
       <c r="B116" s="16">
         <v>1507</v>
@@ -15310,8 +15489,11 @@
       <c r="X116" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y116" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="47"/>
       <c r="B117" s="48">
         <v>1508</v>
@@ -15383,8 +15565,11 @@
       <c r="X117" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y117" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="47"/>
       <c r="B118" s="48">
         <v>1509</v>
@@ -15456,8 +15641,11 @@
       <c r="X118" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y118" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="47"/>
       <c r="B119" s="48">
         <v>1510</v>
@@ -15529,8 +15717,11 @@
       <c r="X119" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y119" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="47"/>
       <c r="B120" s="48">
         <v>1511</v>
@@ -15602,8 +15793,11 @@
       <c r="X120" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y120" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="47"/>
       <c r="B121" s="52">
         <v>1512</v>
@@ -15675,8 +15869,11 @@
       <c r="X121" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y121" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="47"/>
       <c r="B122" s="52">
         <v>1513</v>
@@ -15748,8 +15945,11 @@
       <c r="X122" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y122" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="47"/>
       <c r="B123" s="52">
         <v>1514</v>
@@ -15821,8 +16021,11 @@
       <c r="X123" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y123" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="47"/>
       <c r="B124" s="52">
         <v>1515</v>
@@ -15894,8 +16097,11 @@
       <c r="X124" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y124" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="47"/>
       <c r="B125" s="48">
         <v>1516</v>
@@ -15967,8 +16173,11 @@
       <c r="X125" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y125" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="47"/>
       <c r="B126" s="48">
         <v>1517</v>
@@ -16040,8 +16249,11 @@
       <c r="X126" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y126" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="47"/>
       <c r="B127" s="48">
         <v>1518</v>
@@ -16113,8 +16325,11 @@
       <c r="X127" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y127" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="47"/>
       <c r="B128" s="48">
         <v>1519</v>
@@ -16186,6 +16401,9 @@
       <c r="X128" s="48">
         <v>99</v>
       </c>
+      <c r="Y128" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="129" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
@@ -16260,7 +16478,9 @@
       <c r="X129" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y129" s="10"/>
+      <c r="Y129" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z129" s="10"/>
       <c r="AA129" s="10"/>
       <c r="AB129" s="10"/>
@@ -16337,6 +16557,9 @@
       <c r="X130" s="48">
         <v>99</v>
       </c>
+      <c r="Y130" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="131" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="47"/>
@@ -16410,6 +16633,9 @@
       <c r="X131" s="48">
         <v>99</v>
       </c>
+      <c r="Y131" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="132" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="47"/>
@@ -16483,6 +16709,9 @@
       <c r="X132" s="48">
         <v>99</v>
       </c>
+      <c r="Y132" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="133" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47"/>
@@ -16556,6 +16785,9 @@
       <c r="X133" s="48">
         <v>99</v>
       </c>
+      <c r="Y133" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="134" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="47"/>
@@ -16629,6 +16861,9 @@
       <c r="X134" s="48">
         <v>99</v>
       </c>
+      <c r="Y134" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="135" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="47"/>
@@ -16702,6 +16937,9 @@
       <c r="X135" s="48">
         <v>99</v>
       </c>
+      <c r="Y135" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="136" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="47"/>
@@ -16775,6 +17013,9 @@
       <c r="X136" s="48">
         <v>99</v>
       </c>
+      <c r="Y136" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="137" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="47"/>
@@ -16848,6 +17089,9 @@
       <c r="X137" s="48">
         <v>99</v>
       </c>
+      <c r="Y137" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="138" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="47"/>
@@ -16921,6 +17165,9 @@
       <c r="X138" s="48">
         <v>99</v>
       </c>
+      <c r="Y138" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="139" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="47"/>
@@ -16994,6 +17241,9 @@
       <c r="X139" s="48">
         <v>99</v>
       </c>
+      <c r="Y139" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="140" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="47"/>
@@ -17067,6 +17317,9 @@
       <c r="X140" s="48">
         <v>99</v>
       </c>
+      <c r="Y140" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="141" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="47"/>
@@ -17140,6 +17393,9 @@
       <c r="X141" s="48">
         <v>99</v>
       </c>
+      <c r="Y141" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="142" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="47"/>
@@ -17213,6 +17469,9 @@
       <c r="X142" s="48">
         <v>99</v>
       </c>
+      <c r="Y142" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="143" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="47"/>
@@ -17286,6 +17545,9 @@
       <c r="X143" s="48">
         <v>99</v>
       </c>
+      <c r="Y143" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="144" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="47"/>
@@ -17359,6 +17621,9 @@
       <c r="X144" s="48">
         <v>99</v>
       </c>
+      <c r="Y144" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="145" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="47"/>
@@ -17432,6 +17697,9 @@
       <c r="X145" s="48">
         <v>99</v>
       </c>
+      <c r="Y145" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="146" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="47"/>
@@ -17505,6 +17773,9 @@
       <c r="X146" s="48">
         <v>99</v>
       </c>
+      <c r="Y146" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="147" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="47"/>
@@ -17578,6 +17849,9 @@
       <c r="X147" s="48">
         <v>99</v>
       </c>
+      <c r="Y147" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="148" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="47"/>
@@ -17651,6 +17925,9 @@
       <c r="X148" s="48">
         <v>99</v>
       </c>
+      <c r="Y148" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="149" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="47"/>
@@ -17724,6 +18001,9 @@
       <c r="X149" s="48">
         <v>99</v>
       </c>
+      <c r="Y149" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="150" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
@@ -17798,7 +18078,9 @@
       <c r="X150" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y150" s="10"/>
+      <c r="Y150" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z150" s="10"/>
       <c r="AA150" s="10"/>
       <c r="AB150" s="10"/>
@@ -17875,6 +18157,9 @@
       <c r="X151" s="48">
         <v>99</v>
       </c>
+      <c r="Y151" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="152" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="47"/>
@@ -17948,6 +18233,9 @@
       <c r="X152" s="48">
         <v>99</v>
       </c>
+      <c r="Y152" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="153" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="47"/>
@@ -18021,6 +18309,9 @@
       <c r="X153" s="48">
         <v>99</v>
       </c>
+      <c r="Y153" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="154" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="47"/>
@@ -18094,6 +18385,9 @@
       <c r="X154" s="48">
         <v>99</v>
       </c>
+      <c r="Y154" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="155" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="47"/>
@@ -18167,6 +18461,9 @@
       <c r="X155" s="48">
         <v>99</v>
       </c>
+      <c r="Y155" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="156" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="47"/>
@@ -18240,6 +18537,9 @@
       <c r="X156" s="48">
         <v>99</v>
       </c>
+      <c r="Y156" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="157" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="47"/>
@@ -18313,6 +18613,9 @@
       <c r="X157" s="48">
         <v>99</v>
       </c>
+      <c r="Y157" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="158" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="47"/>
@@ -18386,6 +18689,9 @@
       <c r="X158" s="48">
         <v>99</v>
       </c>
+      <c r="Y158" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="159" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="47"/>
@@ -18459,6 +18765,9 @@
       <c r="X159" s="48">
         <v>99</v>
       </c>
+      <c r="Y159" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="160" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="47"/>
@@ -18532,6 +18841,9 @@
       <c r="X160" s="48">
         <v>99</v>
       </c>
+      <c r="Y160" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="161" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="47"/>
@@ -18605,6 +18917,9 @@
       <c r="X161" s="48">
         <v>99</v>
       </c>
+      <c r="Y161" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="162" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="47"/>
@@ -18678,6 +18993,9 @@
       <c r="X162" s="48">
         <v>99</v>
       </c>
+      <c r="Y162" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="163" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="47"/>
@@ -18751,6 +19069,9 @@
       <c r="X163" s="48">
         <v>99</v>
       </c>
+      <c r="Y163" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="164" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="47"/>
@@ -18824,6 +19145,9 @@
       <c r="X164" s="48">
         <v>99</v>
       </c>
+      <c r="Y164" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="165" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="47"/>
@@ -18897,6 +19221,9 @@
       <c r="X165" s="48">
         <v>99</v>
       </c>
+      <c r="Y165" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="166" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="47"/>
@@ -18970,6 +19297,9 @@
       <c r="X166" s="48">
         <v>99</v>
       </c>
+      <c r="Y166" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="167" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="47"/>
@@ -19043,6 +19373,9 @@
       <c r="X167" s="48">
         <v>99</v>
       </c>
+      <c r="Y167" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="168" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="47"/>
@@ -19116,6 +19449,9 @@
       <c r="X168" s="48">
         <v>99</v>
       </c>
+      <c r="Y168" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="169" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="47"/>
@@ -19189,6 +19525,9 @@
       <c r="X169" s="48">
         <v>99</v>
       </c>
+      <c r="Y169" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="170" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="47"/>
@@ -19262,6 +19601,9 @@
       <c r="X170" s="48">
         <v>99</v>
       </c>
+      <c r="Y170" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="171" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
@@ -19336,7 +19678,9 @@
       <c r="X171" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y171" s="10"/>
+      <c r="Y171" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z171" s="10"/>
       <c r="AA171" s="10"/>
       <c r="AB171" s="10"/>
@@ -19413,6 +19757,9 @@
       <c r="X172" s="48">
         <v>99</v>
       </c>
+      <c r="Y172" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="173" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="47"/>
@@ -19486,6 +19833,9 @@
       <c r="X173" s="48">
         <v>99</v>
       </c>
+      <c r="Y173" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="174" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="47"/>
@@ -19559,6 +19909,9 @@
       <c r="X174" s="48">
         <v>99</v>
       </c>
+      <c r="Y174" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="175" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="47"/>
@@ -19632,6 +19985,9 @@
       <c r="X175" s="48">
         <v>99</v>
       </c>
+      <c r="Y175" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="176" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="47"/>
@@ -19705,6 +20061,9 @@
       <c r="X176" s="48">
         <v>99</v>
       </c>
+      <c r="Y176" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="177" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="47"/>
@@ -19778,6 +20137,9 @@
       <c r="X177" s="48">
         <v>99</v>
       </c>
+      <c r="Y177" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="178" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="47"/>
@@ -19851,6 +20213,9 @@
       <c r="X178" s="48">
         <v>99</v>
       </c>
+      <c r="Y178" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="179" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="47"/>
@@ -19924,6 +20289,9 @@
       <c r="X179" s="48">
         <v>99</v>
       </c>
+      <c r="Y179" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="180" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="47"/>
@@ -19997,6 +20365,9 @@
       <c r="X180" s="48">
         <v>99</v>
       </c>
+      <c r="Y180" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="181" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="47"/>
@@ -20070,6 +20441,9 @@
       <c r="X181" s="48">
         <v>99</v>
       </c>
+      <c r="Y181" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="182" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="47"/>
@@ -20143,6 +20517,9 @@
       <c r="X182" s="48">
         <v>99</v>
       </c>
+      <c r="Y182" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="183" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="47"/>
@@ -20216,6 +20593,9 @@
       <c r="X183" s="48">
         <v>99</v>
       </c>
+      <c r="Y183" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="184" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="47"/>
@@ -20289,6 +20669,9 @@
       <c r="X184" s="48">
         <v>99</v>
       </c>
+      <c r="Y184" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="185" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="47"/>
@@ -20362,6 +20745,9 @@
       <c r="X185" s="48">
         <v>99</v>
       </c>
+      <c r="Y185" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="186" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="47"/>
@@ -20435,6 +20821,9 @@
       <c r="X186" s="48">
         <v>99</v>
       </c>
+      <c r="Y186" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="187" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="47"/>
@@ -20508,6 +20897,9 @@
       <c r="X187" s="48">
         <v>99</v>
       </c>
+      <c r="Y187" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="188" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="47"/>
@@ -20581,6 +20973,9 @@
       <c r="X188" s="48">
         <v>99</v>
       </c>
+      <c r="Y188" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="189" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="47"/>
@@ -20654,6 +21049,9 @@
       <c r="X189" s="48">
         <v>99</v>
       </c>
+      <c r="Y189" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="190" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="47"/>
@@ -20727,6 +21125,9 @@
       <c r="X190" s="48">
         <v>99</v>
       </c>
+      <c r="Y190" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="191" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="47"/>
@@ -20800,6 +21201,9 @@
       <c r="X191" s="48">
         <v>99</v>
       </c>
+      <c r="Y191" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="192" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
@@ -20874,12 +21278,14 @@
       <c r="X192" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y192" s="10"/>
+      <c r="Y192" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z192" s="10"/>
       <c r="AA192" s="10"/>
       <c r="AB192" s="10"/>
     </row>
-    <row r="193" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="47"/>
       <c r="B193" s="48">
         <v>1900</v>
@@ -20951,8 +21357,11 @@
       <c r="X193" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y193" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="47"/>
       <c r="B194" s="48">
         <v>1901</v>
@@ -21024,8 +21433,11 @@
       <c r="X194" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y194" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="47"/>
       <c r="B195" s="48">
         <v>1902</v>
@@ -21097,8 +21509,11 @@
       <c r="X195" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y195" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="47"/>
       <c r="B196" s="48">
         <v>1903</v>
@@ -21170,8 +21585,11 @@
       <c r="X196" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y196" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="47"/>
       <c r="B197" s="48">
         <v>1904</v>
@@ -21243,8 +21661,11 @@
       <c r="X197" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y197" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="47"/>
       <c r="B198" s="48">
         <v>1905</v>
@@ -21316,8 +21737,11 @@
       <c r="X198" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y198" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="47"/>
       <c r="B199" s="48">
         <v>1906</v>
@@ -21389,8 +21813,11 @@
       <c r="X199" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y199" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="47"/>
       <c r="B200" s="48">
         <v>1907</v>
@@ -21462,8 +21889,11 @@
       <c r="X200" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y200" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="47"/>
       <c r="B201" s="48">
         <v>1908</v>
@@ -21535,8 +21965,11 @@
       <c r="X201" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y201" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="47"/>
       <c r="B202" s="48">
         <v>1909</v>
@@ -21608,8 +22041,11 @@
       <c r="X202" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y202" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="47"/>
       <c r="B203" s="48">
         <v>1910</v>
@@ -21681,8 +22117,11 @@
       <c r="X203" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y203" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="47"/>
       <c r="B204" s="48">
         <v>1911</v>
@@ -21754,8 +22193,11 @@
       <c r="X204" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y204" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="47"/>
       <c r="B205" s="48">
         <v>1912</v>
@@ -21827,8 +22269,11 @@
       <c r="X205" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y205" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="47"/>
       <c r="B206" s="48">
         <v>1913</v>
@@ -21900,8 +22345,11 @@
       <c r="X206" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y206" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="47"/>
       <c r="B207" s="48">
         <v>1914</v>
@@ -21973,8 +22421,11 @@
       <c r="X207" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="208" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y207" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="47"/>
       <c r="B208" s="48">
         <v>1915</v>
@@ -22045,6 +22496,9 @@
       </c>
       <c r="X208" s="48">
         <v>99</v>
+      </c>
+      <c r="Y208" s="48">
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -22119,6 +22573,9 @@
       <c r="X209" s="48">
         <v>99</v>
       </c>
+      <c r="Y209" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="210" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="47"/>
@@ -22192,6 +22649,9 @@
       <c r="X210" s="48">
         <v>99</v>
       </c>
+      <c r="Y210" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="211" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="47"/>
@@ -22265,6 +22725,9 @@
       <c r="X211" s="48">
         <v>99</v>
       </c>
+      <c r="Y211" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="212" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="47"/>
@@ -22338,6 +22801,9 @@
       <c r="X212" s="48">
         <v>99</v>
       </c>
+      <c r="Y212" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="213" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
@@ -22412,7 +22878,9 @@
       <c r="X213" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y213" s="10"/>
+      <c r="Y213" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z213" s="10"/>
       <c r="AA213" s="10"/>
       <c r="AB213" s="10"/>
@@ -22489,6 +22957,9 @@
       <c r="X214" s="48">
         <v>99</v>
       </c>
+      <c r="Y214" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="215" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="47"/>
@@ -22562,6 +23033,9 @@
       <c r="X215" s="48">
         <v>99</v>
       </c>
+      <c r="Y215" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="216" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="47"/>
@@ -22635,6 +23109,9 @@
       <c r="X216" s="48">
         <v>99</v>
       </c>
+      <c r="Y216" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="217" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="47"/>
@@ -22708,6 +23185,9 @@
       <c r="X217" s="48">
         <v>99</v>
       </c>
+      <c r="Y217" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="218" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="47"/>
@@ -22781,6 +23261,9 @@
       <c r="X218" s="48">
         <v>99</v>
       </c>
+      <c r="Y218" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="219" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="47"/>
@@ -22854,6 +23337,9 @@
       <c r="X219" s="48">
         <v>99</v>
       </c>
+      <c r="Y219" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="220" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="47"/>
@@ -22927,6 +23413,9 @@
       <c r="X220" s="48">
         <v>99</v>
       </c>
+      <c r="Y220" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="221" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="47"/>
@@ -23000,6 +23489,9 @@
       <c r="X221" s="48">
         <v>99</v>
       </c>
+      <c r="Y221" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="222" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="47"/>
@@ -23073,6 +23565,9 @@
       <c r="X222" s="48">
         <v>99</v>
       </c>
+      <c r="Y222" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="223" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="47"/>
@@ -23146,6 +23641,9 @@
       <c r="X223" s="48">
         <v>99</v>
       </c>
+      <c r="Y223" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="224" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="47"/>
@@ -23219,6 +23717,9 @@
       <c r="X224" s="48">
         <v>99</v>
       </c>
+      <c r="Y224" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="225" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="47"/>
@@ -23292,6 +23793,9 @@
       <c r="X225" s="48">
         <v>99</v>
       </c>
+      <c r="Y225" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="226" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="47"/>
@@ -23365,6 +23869,9 @@
       <c r="X226" s="48">
         <v>99</v>
       </c>
+      <c r="Y226" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="227" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="47"/>
@@ -23438,6 +23945,9 @@
       <c r="X227" s="48">
         <v>99</v>
       </c>
+      <c r="Y227" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="228" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="47"/>
@@ -23511,6 +24021,9 @@
       <c r="X228" s="48">
         <v>99</v>
       </c>
+      <c r="Y228" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="229" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="47"/>
@@ -23584,6 +24097,9 @@
       <c r="X229" s="48">
         <v>99</v>
       </c>
+      <c r="Y229" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="230" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="47"/>
@@ -23657,6 +24173,9 @@
       <c r="X230" s="48">
         <v>99</v>
       </c>
+      <c r="Y230" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="231" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="47"/>
@@ -23730,6 +24249,9 @@
       <c r="X231" s="48">
         <v>99</v>
       </c>
+      <c r="Y231" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="232" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="47"/>
@@ -23803,6 +24325,9 @@
       <c r="X232" s="48">
         <v>99</v>
       </c>
+      <c r="Y232" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="233" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="47"/>
@@ -23876,6 +24401,9 @@
       <c r="X233" s="48">
         <v>99</v>
       </c>
+      <c r="Y233" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="234" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
@@ -23950,7 +24478,9 @@
       <c r="X234" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y234" s="10"/>
+      <c r="Y234" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z234" s="10"/>
       <c r="AA234" s="10"/>
       <c r="AB234" s="10"/>
@@ -24027,6 +24557,9 @@
       <c r="X235" s="48">
         <v>99</v>
       </c>
+      <c r="Y235" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="236" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="47"/>
@@ -24100,6 +24633,9 @@
       <c r="X236" s="48">
         <v>99</v>
       </c>
+      <c r="Y236" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="237" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="47"/>
@@ -24173,6 +24709,9 @@
       <c r="X237" s="48">
         <v>99</v>
       </c>
+      <c r="Y237" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="238" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="47"/>
@@ -24246,6 +24785,9 @@
       <c r="X238" s="48">
         <v>99</v>
       </c>
+      <c r="Y238" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="239" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="47"/>
@@ -24319,6 +24861,9 @@
       <c r="X239" s="48">
         <v>99</v>
       </c>
+      <c r="Y239" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="240" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="47"/>
@@ -24392,6 +24937,9 @@
       <c r="X240" s="48">
         <v>99</v>
       </c>
+      <c r="Y240" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="241" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="47"/>
@@ -24465,6 +25013,9 @@
       <c r="X241" s="48">
         <v>99</v>
       </c>
+      <c r="Y241" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="242" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="47"/>
@@ -24538,6 +25089,9 @@
       <c r="X242" s="48">
         <v>99</v>
       </c>
+      <c r="Y242" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="243" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="47"/>
@@ -24611,6 +25165,9 @@
       <c r="X243" s="48">
         <v>99</v>
       </c>
+      <c r="Y243" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="244" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="47"/>
@@ -24684,6 +25241,9 @@
       <c r="X244" s="48">
         <v>99</v>
       </c>
+      <c r="Y244" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="245" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="47"/>
@@ -24757,6 +25317,9 @@
       <c r="X245" s="48">
         <v>99</v>
       </c>
+      <c r="Y245" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="246" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="47"/>
@@ -24830,6 +25393,9 @@
       <c r="X246" s="48">
         <v>99</v>
       </c>
+      <c r="Y246" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="247" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="47"/>
@@ -24903,6 +25469,9 @@
       <c r="X247" s="48">
         <v>99</v>
       </c>
+      <c r="Y247" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="248" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="47"/>
@@ -24976,6 +25545,9 @@
       <c r="X248" s="48">
         <v>99</v>
       </c>
+      <c r="Y248" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="249" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="47"/>
@@ -25049,6 +25621,9 @@
       <c r="X249" s="48">
         <v>99</v>
       </c>
+      <c r="Y249" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="250" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="47"/>
@@ -25122,6 +25697,9 @@
       <c r="X250" s="48">
         <v>99</v>
       </c>
+      <c r="Y250" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="251" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="47"/>
@@ -25195,6 +25773,9 @@
       <c r="X251" s="48">
         <v>99</v>
       </c>
+      <c r="Y251" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="252" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="47"/>
@@ -25268,6 +25849,9 @@
       <c r="X252" s="48">
         <v>99</v>
       </c>
+      <c r="Y252" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="253" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="47"/>
@@ -25341,6 +25925,9 @@
       <c r="X253" s="48">
         <v>99</v>
       </c>
+      <c r="Y253" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="254" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="47"/>
@@ -25414,6 +26001,9 @@
       <c r="X254" s="48">
         <v>99</v>
       </c>
+      <c r="Y254" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="255" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
@@ -25488,7 +26078,9 @@
       <c r="X255" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y255" s="10"/>
+      <c r="Y255" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z255" s="10"/>
       <c r="AA255" s="10"/>
       <c r="AB255" s="10"/>
@@ -25565,8 +26157,11 @@
       <c r="X256" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="257" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y256" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="47"/>
       <c r="B257" s="48">
         <v>2201</v>
@@ -25638,8 +26233,11 @@
       <c r="X257" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y257" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="47"/>
       <c r="B258" s="48">
         <v>2202</v>
@@ -25711,8 +26309,11 @@
       <c r="X258" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="259" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y258" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="47"/>
       <c r="B259" s="48">
         <v>2203</v>
@@ -25784,8 +26385,11 @@
       <c r="X259" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="260" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y259" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="47"/>
       <c r="B260" s="48">
         <v>2204</v>
@@ -25857,8 +26461,11 @@
       <c r="X260" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="261" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y260" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="47"/>
       <c r="B261" s="48">
         <v>2205</v>
@@ -25930,8 +26537,11 @@
       <c r="X261" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y261" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="47"/>
       <c r="B262" s="48">
         <v>2206</v>
@@ -26003,8 +26613,11 @@
       <c r="X262" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y262" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="47"/>
       <c r="B263" s="48">
         <v>2207</v>
@@ -26076,8 +26689,11 @@
       <c r="X263" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="264" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y263" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="47"/>
       <c r="B264" s="48">
         <v>2208</v>
@@ -26149,8 +26765,11 @@
       <c r="X264" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y264" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="47"/>
       <c r="B265" s="48">
         <v>2209</v>
@@ -26222,8 +26841,11 @@
       <c r="X265" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y265" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="47"/>
       <c r="B266" s="48">
         <v>2210</v>
@@ -26295,8 +26917,11 @@
       <c r="X266" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y266" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="47"/>
       <c r="B267" s="48">
         <v>2211</v>
@@ -26368,8 +26993,11 @@
       <c r="X267" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="268" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y267" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="47"/>
       <c r="B268" s="48">
         <v>2212</v>
@@ -26441,8 +27069,11 @@
       <c r="X268" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="269" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y268" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="47"/>
       <c r="B269" s="48">
         <v>2213</v>
@@ -26514,8 +27145,11 @@
       <c r="X269" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="270" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y269" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="47"/>
       <c r="B270" s="48">
         <v>2214</v>
@@ -26587,8 +27221,11 @@
       <c r="X270" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y270" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="47"/>
       <c r="B271" s="48">
         <v>2215</v>
@@ -26660,8 +27297,11 @@
       <c r="X271" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="272" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y271" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="47"/>
       <c r="B272" s="48">
         <v>2216</v>
@@ -26732,6 +27372,9 @@
       </c>
       <c r="X272" s="48">
         <v>99</v>
+      </c>
+      <c r="Y272" s="48">
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -26806,6 +27449,9 @@
       <c r="X273" s="48">
         <v>99</v>
       </c>
+      <c r="Y273" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="274" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="47"/>
@@ -26879,6 +27525,9 @@
       <c r="X274" s="48">
         <v>99</v>
       </c>
+      <c r="Y274" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="275" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="47"/>
@@ -26952,6 +27601,9 @@
       <c r="X275" s="48">
         <v>99</v>
       </c>
+      <c r="Y275" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="276" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
@@ -27026,7 +27678,9 @@
       <c r="X276" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y276" s="10"/>
+      <c r="Y276" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z276" s="10"/>
       <c r="AA276" s="10"/>
       <c r="AB276" s="10"/>
@@ -27103,6 +27757,9 @@
       <c r="X277" s="48">
         <v>99</v>
       </c>
+      <c r="Y277" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="278" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="47"/>
@@ -27176,6 +27833,9 @@
       <c r="X278" s="48">
         <v>99</v>
       </c>
+      <c r="Y278" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="279" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="47"/>
@@ -27249,6 +27909,9 @@
       <c r="X279" s="48">
         <v>99</v>
       </c>
+      <c r="Y279" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="280" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="47"/>
@@ -27322,6 +27985,9 @@
       <c r="X280" s="48">
         <v>99</v>
       </c>
+      <c r="Y280" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="281" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="47"/>
@@ -27395,6 +28061,9 @@
       <c r="X281" s="48">
         <v>99</v>
       </c>
+      <c r="Y281" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="282" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="47"/>
@@ -27468,6 +28137,9 @@
       <c r="X282" s="48">
         <v>99</v>
       </c>
+      <c r="Y282" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="283" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="47"/>
@@ -27541,6 +28213,9 @@
       <c r="X283" s="48">
         <v>99</v>
       </c>
+      <c r="Y283" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="284" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="47"/>
@@ -27614,6 +28289,9 @@
       <c r="X284" s="48">
         <v>99</v>
       </c>
+      <c r="Y284" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="285" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="47"/>
@@ -27687,6 +28365,9 @@
       <c r="X285" s="48">
         <v>99</v>
       </c>
+      <c r="Y285" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="286" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="47"/>
@@ -27760,6 +28441,9 @@
       <c r="X286" s="48">
         <v>99</v>
       </c>
+      <c r="Y286" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="287" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="47"/>
@@ -27833,6 +28517,9 @@
       <c r="X287" s="48">
         <v>99</v>
       </c>
+      <c r="Y287" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="288" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="47"/>
@@ -27906,6 +28593,9 @@
       <c r="X288" s="48">
         <v>99</v>
       </c>
+      <c r="Y288" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="289" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="47"/>
@@ -27979,6 +28669,9 @@
       <c r="X289" s="48">
         <v>99</v>
       </c>
+      <c r="Y289" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="290" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="47"/>
@@ -28052,6 +28745,9 @@
       <c r="X290" s="48">
         <v>99</v>
       </c>
+      <c r="Y290" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="291" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="47"/>
@@ -28125,6 +28821,9 @@
       <c r="X291" s="48">
         <v>99</v>
       </c>
+      <c r="Y291" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="292" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="47"/>
@@ -28198,6 +28897,9 @@
       <c r="X292" s="48">
         <v>99</v>
       </c>
+      <c r="Y292" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="293" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="47"/>
@@ -28271,6 +28973,9 @@
       <c r="X293" s="48">
         <v>99</v>
       </c>
+      <c r="Y293" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="294" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="47"/>
@@ -28344,6 +29049,9 @@
       <c r="X294" s="48">
         <v>99</v>
       </c>
+      <c r="Y294" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="295" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="47"/>
@@ -28417,6 +29125,9 @@
       <c r="X295" s="48">
         <v>99</v>
       </c>
+      <c r="Y295" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="296" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="47"/>
@@ -28490,6 +29201,9 @@
       <c r="X296" s="48">
         <v>99</v>
       </c>
+      <c r="Y296" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="297" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10" t="s">
@@ -28564,7 +29278,9 @@
       <c r="X297" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y297" s="10"/>
+      <c r="Y297" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z297" s="10"/>
       <c r="AA297" s="10"/>
       <c r="AB297" s="10"/>
@@ -28641,6 +29357,9 @@
       <c r="X298" s="48">
         <v>99</v>
       </c>
+      <c r="Y298" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="299" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="47"/>
@@ -28714,6 +29433,9 @@
       <c r="X299" s="48">
         <v>99</v>
       </c>
+      <c r="Y299" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="300" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="47"/>
@@ -28787,6 +29509,9 @@
       <c r="X300" s="48">
         <v>99</v>
       </c>
+      <c r="Y300" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="301" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="47"/>
@@ -28860,6 +29585,9 @@
       <c r="X301" s="48">
         <v>99</v>
       </c>
+      <c r="Y301" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="302" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="47"/>
@@ -28933,6 +29661,9 @@
       <c r="X302" s="48">
         <v>99</v>
       </c>
+      <c r="Y302" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="303" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="47"/>
@@ -29006,6 +29737,9 @@
       <c r="X303" s="48">
         <v>99</v>
       </c>
+      <c r="Y303" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="304" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="47"/>
@@ -29079,6 +29813,9 @@
       <c r="X304" s="48">
         <v>99</v>
       </c>
+      <c r="Y304" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="305" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="47"/>
@@ -29152,6 +29889,9 @@
       <c r="X305" s="48">
         <v>99</v>
       </c>
+      <c r="Y305" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="306" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="47"/>
@@ -29225,6 +29965,9 @@
       <c r="X306" s="48">
         <v>99</v>
       </c>
+      <c r="Y306" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="307" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="47"/>
@@ -29298,6 +30041,9 @@
       <c r="X307" s="48">
         <v>99</v>
       </c>
+      <c r="Y307" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="308" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="47"/>
@@ -29371,6 +30117,9 @@
       <c r="X308" s="48">
         <v>99</v>
       </c>
+      <c r="Y308" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="309" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="47"/>
@@ -29444,6 +30193,9 @@
       <c r="X309" s="48">
         <v>99</v>
       </c>
+      <c r="Y309" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="310" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="47"/>
@@ -29517,6 +30269,9 @@
       <c r="X310" s="48">
         <v>99</v>
       </c>
+      <c r="Y310" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="311" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="47"/>
@@ -29590,6 +30345,9 @@
       <c r="X311" s="48">
         <v>99</v>
       </c>
+      <c r="Y311" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="312" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="47"/>
@@ -29663,6 +30421,9 @@
       <c r="X312" s="48">
         <v>99</v>
       </c>
+      <c r="Y312" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="313" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="47"/>
@@ -29736,6 +30497,9 @@
       <c r="X313" s="48">
         <v>99</v>
       </c>
+      <c r="Y313" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="314" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="47"/>
@@ -29809,6 +30573,9 @@
       <c r="X314" s="48">
         <v>99</v>
       </c>
+      <c r="Y314" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="315" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="47"/>
@@ -29882,6 +30649,9 @@
       <c r="X315" s="48">
         <v>99</v>
       </c>
+      <c r="Y315" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="316" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="47"/>
@@ -29955,6 +30725,9 @@
       <c r="X316" s="48">
         <v>99</v>
       </c>
+      <c r="Y316" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="317" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="47"/>
@@ -30028,6 +30801,9 @@
       <c r="X317" s="48">
         <v>99</v>
       </c>
+      <c r="Y317" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="318" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="s">
@@ -30102,7 +30878,9 @@
       <c r="X318" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y318" s="10"/>
+      <c r="Y318" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z318" s="10"/>
       <c r="AA318" s="10"/>
       <c r="AB318" s="10"/>
@@ -30179,6 +30957,9 @@
       <c r="X319" s="48">
         <v>99</v>
       </c>
+      <c r="Y319" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="320" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="47"/>
@@ -30252,8 +31033,11 @@
       <c r="X320" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y320" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="47"/>
       <c r="B321" s="48">
         <v>2502</v>
@@ -30325,8 +31109,11 @@
       <c r="X321" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y321" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="47"/>
       <c r="B322" s="48">
         <v>2503</v>
@@ -30398,8 +31185,11 @@
       <c r="X322" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y322" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="47"/>
       <c r="B323" s="48">
         <v>2504</v>
@@ -30471,8 +31261,11 @@
       <c r="X323" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="324" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y323" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="47"/>
       <c r="B324" s="48">
         <v>2505</v>
@@ -30544,8 +31337,11 @@
       <c r="X324" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="325" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y324" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="47"/>
       <c r="B325" s="48">
         <v>2506</v>
@@ -30617,8 +31413,11 @@
       <c r="X325" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y325" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="47"/>
       <c r="B326" s="48">
         <v>2507</v>
@@ -30690,8 +31489,11 @@
       <c r="X326" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="327" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y326" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="47"/>
       <c r="B327" s="48">
         <v>2508</v>
@@ -30763,8 +31565,11 @@
       <c r="X327" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="328" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y327" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="47"/>
       <c r="B328" s="48">
         <v>2509</v>
@@ -30836,8 +31641,11 @@
       <c r="X328" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y328" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="47"/>
       <c r="B329" s="48">
         <v>2510</v>
@@ -30909,8 +31717,11 @@
       <c r="X329" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y329" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="47"/>
       <c r="B330" s="48">
         <v>2511</v>
@@ -30982,8 +31793,11 @@
       <c r="X330" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y330" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="47"/>
       <c r="B331" s="48">
         <v>2512</v>
@@ -31055,8 +31869,11 @@
       <c r="X331" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="332" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y331" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="47"/>
       <c r="B332" s="48">
         <v>2513</v>
@@ -31128,8 +31945,11 @@
       <c r="X332" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y332" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="47"/>
       <c r="B333" s="48">
         <v>2514</v>
@@ -31201,8 +32021,11 @@
       <c r="X333" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y333" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="47"/>
       <c r="B334" s="48">
         <v>2515</v>
@@ -31274,8 +32097,11 @@
       <c r="X334" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="335" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y334" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="47"/>
       <c r="B335" s="48">
         <v>2516</v>
@@ -31347,8 +32173,11 @@
       <c r="X335" s="48">
         <v>99</v>
       </c>
-    </row>
-    <row r="336" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y335" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="47"/>
       <c r="B336" s="48">
         <v>2517</v>
@@ -31419,6 +32248,9 @@
       </c>
       <c r="X336" s="48">
         <v>99</v>
+      </c>
+      <c r="Y336" s="48">
+        <v>80</v>
       </c>
     </row>
     <row r="337" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -31493,6 +32325,9 @@
       <c r="X337" s="48">
         <v>99</v>
       </c>
+      <c r="Y337" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="338" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="47"/>
@@ -31566,6 +32401,9 @@
       <c r="X338" s="48">
         <v>99</v>
       </c>
+      <c r="Y338" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="339" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
@@ -31640,7 +32478,9 @@
       <c r="X339" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y339" s="10"/>
+      <c r="Y339" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z339" s="10"/>
       <c r="AA339" s="10"/>
       <c r="AB339" s="10"/>
@@ -31717,6 +32557,9 @@
       <c r="X340" s="48">
         <v>99</v>
       </c>
+      <c r="Y340" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="341" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="47"/>
@@ -31790,6 +32633,9 @@
       <c r="X341" s="48">
         <v>99</v>
       </c>
+      <c r="Y341" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="342" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="47"/>
@@ -31863,6 +32709,9 @@
       <c r="X342" s="48">
         <v>99</v>
       </c>
+      <c r="Y342" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="343" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="47"/>
@@ -31936,6 +32785,9 @@
       <c r="X343" s="48">
         <v>99</v>
       </c>
+      <c r="Y343" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="344" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="47"/>
@@ -32009,6 +32861,9 @@
       <c r="X344" s="48">
         <v>99</v>
       </c>
+      <c r="Y344" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="345" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="47"/>
@@ -32082,6 +32937,9 @@
       <c r="X345" s="48">
         <v>99</v>
       </c>
+      <c r="Y345" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="346" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="47"/>
@@ -32155,6 +33013,9 @@
       <c r="X346" s="48">
         <v>99</v>
       </c>
+      <c r="Y346" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="347" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="47"/>
@@ -32228,6 +33089,9 @@
       <c r="X347" s="48">
         <v>99</v>
       </c>
+      <c r="Y347" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="348" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="47"/>
@@ -32301,6 +33165,9 @@
       <c r="X348" s="48">
         <v>99</v>
       </c>
+      <c r="Y348" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="349" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="47"/>
@@ -32374,6 +33241,9 @@
       <c r="X349" s="48">
         <v>99</v>
       </c>
+      <c r="Y349" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="350" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="47"/>
@@ -32447,6 +33317,9 @@
       <c r="X350" s="48">
         <v>99</v>
       </c>
+      <c r="Y350" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="351" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="47"/>
@@ -32520,6 +33393,9 @@
       <c r="X351" s="48">
         <v>99</v>
       </c>
+      <c r="Y351" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="352" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="47"/>
@@ -32593,6 +33469,9 @@
       <c r="X352" s="48">
         <v>99</v>
       </c>
+      <c r="Y352" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="353" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="47"/>
@@ -32666,6 +33545,9 @@
       <c r="X353" s="48">
         <v>99</v>
       </c>
+      <c r="Y353" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="354" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="47"/>
@@ -32739,6 +33621,9 @@
       <c r="X354" s="48">
         <v>99</v>
       </c>
+      <c r="Y354" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="355" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="47"/>
@@ -32812,6 +33697,9 @@
       <c r="X355" s="48">
         <v>99</v>
       </c>
+      <c r="Y355" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="356" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="47"/>
@@ -32885,6 +33773,9 @@
       <c r="X356" s="48">
         <v>99</v>
       </c>
+      <c r="Y356" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="357" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="47"/>
@@ -32958,6 +33849,9 @@
       <c r="X357" s="48">
         <v>99</v>
       </c>
+      <c r="Y357" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="358" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="47"/>
@@ -33031,6 +33925,9 @@
       <c r="X358" s="48">
         <v>99</v>
       </c>
+      <c r="Y358" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="359" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="47"/>
@@ -33104,6 +34001,9 @@
       <c r="X359" s="48">
         <v>99</v>
       </c>
+      <c r="Y359" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="360" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="10" t="s">
@@ -33178,7 +34078,9 @@
       <c r="X360" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="Y360" s="10"/>
+      <c r="Y360" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Z360" s="10"/>
       <c r="AA360" s="10"/>
       <c r="AB360" s="10"/>
@@ -33255,6 +34157,9 @@
       <c r="X361" s="48">
         <v>99</v>
       </c>
+      <c r="Y361" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="362" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="47"/>
@@ -33328,6 +34233,9 @@
       <c r="X362" s="48">
         <v>99</v>
       </c>
+      <c r="Y362" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="363" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="47"/>
@@ -33401,6 +34309,9 @@
       <c r="X363" s="48">
         <v>99</v>
       </c>
+      <c r="Y363" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="364" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="47"/>
@@ -33474,6 +34385,9 @@
       <c r="X364" s="48">
         <v>99</v>
       </c>
+      <c r="Y364" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="365" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="47"/>
@@ -33547,6 +34461,9 @@
       <c r="X365" s="48">
         <v>99</v>
       </c>
+      <c r="Y365" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="366" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="47"/>
@@ -33620,6 +34537,9 @@
       <c r="X366" s="48">
         <v>99</v>
       </c>
+      <c r="Y366" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="367" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="47"/>
@@ -33693,6 +34613,9 @@
       <c r="X367" s="48">
         <v>99</v>
       </c>
+      <c r="Y367" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="368" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="47"/>
@@ -33766,6 +34689,9 @@
       <c r="X368" s="48">
         <v>99</v>
       </c>
+      <c r="Y368" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="369" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="47"/>
@@ -33839,6 +34765,9 @@
       <c r="X369" s="48">
         <v>99</v>
       </c>
+      <c r="Y369" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="370" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="47"/>
@@ -33912,6 +34841,9 @@
       <c r="X370" s="48">
         <v>99</v>
       </c>
+      <c r="Y370" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="371" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="47"/>
@@ -33985,6 +34917,9 @@
       <c r="X371" s="48">
         <v>99</v>
       </c>
+      <c r="Y371" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="372" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="47"/>
@@ -34058,6 +34993,9 @@
       <c r="X372" s="48">
         <v>99</v>
       </c>
+      <c r="Y372" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="373" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="47"/>
@@ -34131,6 +35069,9 @@
       <c r="X373" s="48">
         <v>99</v>
       </c>
+      <c r="Y373" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="374" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="47"/>
@@ -34204,6 +35145,9 @@
       <c r="X374" s="48">
         <v>99</v>
       </c>
+      <c r="Y374" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="375" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="47"/>
@@ -34277,6 +35221,9 @@
       <c r="X375" s="48">
         <v>99</v>
       </c>
+      <c r="Y375" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="376" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="47"/>
@@ -34350,6 +35297,9 @@
       <c r="X376" s="48">
         <v>99</v>
       </c>
+      <c r="Y376" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="377" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="47"/>
@@ -34423,6 +35373,9 @@
       <c r="X377" s="48">
         <v>99</v>
       </c>
+      <c r="Y377" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="378" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="47"/>
@@ -34496,6 +35449,9 @@
       <c r="X378" s="48">
         <v>99</v>
       </c>
+      <c r="Y378" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="379" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="47"/>
@@ -34569,6 +35525,9 @@
       <c r="X379" s="48">
         <v>99</v>
       </c>
+      <c r="Y379" s="48">
+        <v>80</v>
+      </c>
     </row>
     <row r="380" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="47"/>
@@ -34641,6 +35600,9 @@
       </c>
       <c r="X380" s="48">
         <v>99</v>
+      </c>
+      <c r="Y380" s="48">
+        <v>80</v>
       </c>
     </row>
     <row r="381" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.3">
@@ -36774,933 +37736,895 @@
       <c r="AA414" s="22"/>
       <c r="AB414" s="22"/>
     </row>
-    <row r="415" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="14" t="s">
+    <row r="415" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D415" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G415" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H415" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I415" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J415" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K415" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L415" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M415" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="N415" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O415" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P415" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q415" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R415" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="S415" s="10"/>
+      <c r="T415" s="10"/>
+      <c r="U415" s="10"/>
+      <c r="V415" s="10"/>
+      <c r="W415" s="10"/>
+      <c r="X415" s="10"/>
+      <c r="Y415" s="10"/>
+      <c r="Z415" s="10"/>
+      <c r="AA415" s="10"/>
+      <c r="AB415" s="10"/>
+    </row>
+    <row r="416" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="56"/>
+      <c r="B416" s="48">
+        <v>6000</v>
+      </c>
+      <c r="C416" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D416" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E416" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F416" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="G416" s="48">
+        <v>0</v>
+      </c>
+      <c r="H416" s="48">
+        <v>0</v>
+      </c>
+      <c r="I416" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J416" s="48">
+        <v>0</v>
+      </c>
+      <c r="K416" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="L416" s="48">
+        <v>0</v>
+      </c>
+      <c r="M416" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="N416" s="48">
+        <v>0</v>
+      </c>
+      <c r="O416" s="7">
+        <v>1</v>
+      </c>
+      <c r="P416" s="48">
+        <f>O416</f>
+        <v>1</v>
+      </c>
+      <c r="Q416" s="48">
+        <v>1</v>
+      </c>
+      <c r="R416" s="48" t="str">
+        <f t="shared" ref="R416:R422" si="67">F416</f>
+        <v>볼</v>
+      </c>
+    </row>
+    <row r="417" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="56"/>
+      <c r="B417" s="48">
+        <v>6001</v>
+      </c>
+      <c r="C417" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D417" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E417" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F417" s="48" t="s">
+        <v>831</v>
+      </c>
+      <c r="G417" s="48">
+        <v>1</v>
+      </c>
+      <c r="H417" s="48">
+        <v>0</v>
+      </c>
+      <c r="I417" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J417" s="48">
+        <v>0</v>
+      </c>
+      <c r="K417" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="L417" s="48">
+        <v>0</v>
+      </c>
+      <c r="M417" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N417" s="48">
+        <v>0</v>
+      </c>
+      <c r="O417" s="7">
+        <v>100</v>
+      </c>
+      <c r="P417" s="48">
+        <f t="shared" ref="P417:P422" si="68">O417</f>
+        <v>100</v>
+      </c>
+      <c r="Q417" s="48">
+        <v>1</v>
+      </c>
+      <c r="R417" s="48" t="str">
+        <f t="shared" si="67"/>
+        <v>볼 소량</v>
+      </c>
+    </row>
+    <row r="418" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="56"/>
+      <c r="B418" s="48">
+        <v>6002</v>
+      </c>
+      <c r="C418" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D418" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E418" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F418" s="48" t="s">
+        <v>832</v>
+      </c>
+      <c r="G418" s="48">
+        <v>1</v>
+      </c>
+      <c r="H418" s="48">
+        <v>0</v>
+      </c>
+      <c r="I418" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J418" s="48">
+        <v>0</v>
+      </c>
+      <c r="K418" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="L418" s="48">
+        <v>0</v>
+      </c>
+      <c r="M418" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N418" s="48">
+        <v>0</v>
+      </c>
+      <c r="O418" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P418" s="48">
+        <f t="shared" si="68"/>
+        <v>1000</v>
+      </c>
+      <c r="Q418" s="48">
+        <v>1</v>
+      </c>
+      <c r="R418" s="48" t="str">
+        <f t="shared" si="67"/>
+        <v>볼 뭉치</v>
+      </c>
+    </row>
+    <row r="419" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="56"/>
+      <c r="B419" s="48">
+        <v>6003</v>
+      </c>
+      <c r="C419" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D419" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E419" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F419" s="48" t="s">
+        <v>833</v>
+      </c>
+      <c r="G419" s="48">
+        <v>1</v>
+      </c>
+      <c r="H419" s="48">
+        <v>0</v>
+      </c>
+      <c r="I419" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J419" s="48">
+        <v>0</v>
+      </c>
+      <c r="K419" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="L419" s="48">
+        <v>0</v>
+      </c>
+      <c r="M419" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N419" s="48">
+        <v>0</v>
+      </c>
+      <c r="O419" s="7">
+        <v>2500</v>
+      </c>
+      <c r="P419" s="48">
+        <f t="shared" si="68"/>
+        <v>2500</v>
+      </c>
+      <c r="Q419" s="48">
+        <v>1</v>
+      </c>
+      <c r="R419" s="48" t="str">
+        <f t="shared" si="67"/>
+        <v>볼 주머니</v>
+      </c>
+    </row>
+    <row r="420" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="56"/>
+      <c r="B420" s="48">
+        <v>6004</v>
+      </c>
+      <c r="C420" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D420" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E420" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F420" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="G420" s="48">
+        <v>1</v>
+      </c>
+      <c r="H420" s="48">
+        <v>0</v>
+      </c>
+      <c r="I420" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J420" s="48">
+        <v>0</v>
+      </c>
+      <c r="K420" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="L420" s="48">
+        <v>0</v>
+      </c>
+      <c r="M420" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N420" s="48">
+        <v>0</v>
+      </c>
+      <c r="O420" s="7">
+        <v>4000</v>
+      </c>
+      <c r="P420" s="48">
+        <f t="shared" si="68"/>
+        <v>4000</v>
+      </c>
+      <c r="Q420" s="48">
+        <v>1</v>
+      </c>
+      <c r="R420" s="48" t="str">
+        <f t="shared" si="67"/>
+        <v>작은 볼 상자</v>
+      </c>
+    </row>
+    <row r="421" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="56"/>
+      <c r="B421" s="48">
+        <v>6005</v>
+      </c>
+      <c r="C421" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D421" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E421" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F421" s="48" t="s">
+        <v>835</v>
+      </c>
+      <c r="G421" s="48">
+        <v>1</v>
+      </c>
+      <c r="H421" s="48">
+        <v>0</v>
+      </c>
+      <c r="I421" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J421" s="48">
+        <v>0</v>
+      </c>
+      <c r="K421" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="L421" s="48">
+        <v>0</v>
+      </c>
+      <c r="M421" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N421" s="48">
+        <v>0</v>
+      </c>
+      <c r="O421" s="7">
+        <v>10000</v>
+      </c>
+      <c r="P421" s="48">
+        <f t="shared" si="68"/>
+        <v>10000</v>
+      </c>
+      <c r="Q421" s="48">
+        <v>1</v>
+      </c>
+      <c r="R421" s="48" t="str">
+        <f t="shared" si="67"/>
+        <v>큰 볼 상자</v>
+      </c>
+    </row>
+    <row r="422" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="56"/>
+      <c r="B422" s="48">
+        <v>6006</v>
+      </c>
+      <c r="C422" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="D422" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E422" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F422" s="48" t="s">
+        <v>836</v>
+      </c>
+      <c r="G422" s="48">
+        <v>1</v>
+      </c>
+      <c r="H422" s="48">
+        <v>0</v>
+      </c>
+      <c r="I422" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J422" s="48">
+        <v>0</v>
+      </c>
+      <c r="K422" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="L422" s="48">
+        <v>0</v>
+      </c>
+      <c r="M422" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N422" s="48">
+        <v>0</v>
+      </c>
+      <c r="O422" s="7">
+        <v>20000</v>
+      </c>
+      <c r="P422" s="48">
+        <f t="shared" si="68"/>
+        <v>20000</v>
+      </c>
+      <c r="Q422" s="48">
+        <v>1</v>
+      </c>
+      <c r="R422" s="48" t="str">
+        <f t="shared" si="67"/>
+        <v>대형 볼 상자</v>
+      </c>
+      <c r="S422" s="48"/>
+      <c r="T422" s="48"/>
+    </row>
+    <row r="423" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B415" s="14"/>
-      <c r="C415" s="14"/>
-      <c r="D415" s="14"/>
-      <c r="E415" s="14"/>
-      <c r="F415" s="14"/>
-      <c r="G415" s="14"/>
-      <c r="H415" s="14"/>
-      <c r="I415" s="14"/>
-      <c r="J415" s="14"/>
-      <c r="K415" s="14"/>
-      <c r="L415" s="14"/>
-      <c r="M415" s="14"/>
-      <c r="N415" s="14"/>
-      <c r="O415" s="14"/>
-      <c r="P415" s="14"/>
-      <c r="Q415" s="14"/>
-      <c r="R415" s="14"/>
-      <c r="S415" s="14"/>
-      <c r="T415" s="14"/>
-      <c r="U415" s="14"/>
-      <c r="V415" s="14"/>
-      <c r="W415" s="14"/>
-      <c r="X415" s="14"/>
-      <c r="Y415" s="14"/>
-      <c r="Z415" s="14"/>
-      <c r="AA415" s="14"/>
-      <c r="AB415" s="14"/>
-    </row>
-    <row r="416" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="10" t="s">
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="14"/>
+      <c r="F423" s="14"/>
+      <c r="G423" s="14"/>
+      <c r="H423" s="14"/>
+      <c r="I423" s="14"/>
+      <c r="J423" s="14"/>
+      <c r="K423" s="14"/>
+      <c r="L423" s="14"/>
+      <c r="M423" s="14"/>
+      <c r="N423" s="14"/>
+      <c r="O423" s="14"/>
+      <c r="P423" s="14"/>
+      <c r="Q423" s="14"/>
+      <c r="R423" s="14"/>
+      <c r="S423" s="14"/>
+      <c r="T423" s="14"/>
+      <c r="U423" s="14"/>
+      <c r="V423" s="14"/>
+      <c r="W423" s="14"/>
+      <c r="X423" s="14"/>
+      <c r="Y423" s="14"/>
+      <c r="Z423" s="14"/>
+      <c r="AA423" s="14"/>
+      <c r="AB423" s="14"/>
+    </row>
+    <row r="424" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B424" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C416" s="10" t="s">
+      <c r="C424" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D416" s="10" t="s">
+      <c r="D424" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E416" s="10" t="s">
+      <c r="E424" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F416" s="10" t="s">
+      <c r="F424" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G416" s="10" t="s">
+      <c r="G424" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H416" s="10" t="s">
+      <c r="H424" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I416" s="10" t="s">
+      <c r="I424" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J416" s="10" t="s">
+      <c r="J424" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K416" s="10" t="s">
+      <c r="K424" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L416" s="10" t="s">
+      <c r="L424" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M416" s="10" t="s">
+      <c r="M424" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="N416" s="10" t="s">
+      <c r="N424" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="O416" s="10" t="s">
+      <c r="O424" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P416" s="10" t="s">
+      <c r="P424" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q416" s="10" t="s">
+      <c r="Q424" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="R416" s="10" t="s">
+      <c r="R424" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="S416" s="10"/>
-      <c r="T416" s="10"/>
-      <c r="U416" s="10"/>
-      <c r="V416" s="10"/>
-      <c r="W416" s="10"/>
-      <c r="X416" s="10"/>
-      <c r="Y416" s="10"/>
-      <c r="Z416" s="10"/>
-      <c r="AA416" s="10"/>
-      <c r="AB416" s="10"/>
-    </row>
-    <row r="417" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="19"/>
-      <c r="B417" s="19">
+      <c r="S424" s="10"/>
+      <c r="T424" s="10"/>
+      <c r="U424" s="10"/>
+      <c r="V424" s="10"/>
+      <c r="W424" s="10"/>
+      <c r="X424" s="10"/>
+      <c r="Y424" s="10"/>
+      <c r="Z424" s="10"/>
+      <c r="AA424" s="10"/>
+      <c r="AB424" s="10"/>
+    </row>
+    <row r="425" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="19"/>
+      <c r="B425" s="19">
         <v>50000</v>
       </c>
-      <c r="C417" s="19" t="s">
+      <c r="C425" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D417" s="19" t="s">
+      <c r="D425" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="E417" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F417" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="G417" s="19">
-        <v>0</v>
-      </c>
-      <c r="H417" s="19">
-        <v>0</v>
-      </c>
-      <c r="I417" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J417" s="19">
-        <v>0</v>
-      </c>
-      <c r="K417" s="19">
-        <v>16</v>
-      </c>
-      <c r="L417" s="19">
-        <v>0</v>
-      </c>
-      <c r="M417" s="19">
-        <v>0</v>
-      </c>
-      <c r="N417" s="19">
-        <v>0</v>
-      </c>
-      <c r="O417" s="21">
-        <v>8</v>
-      </c>
-      <c r="P417" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q417" s="19">
-        <v>1</v>
-      </c>
-      <c r="R417" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="S417" s="19"/>
-      <c r="T417" s="19"/>
-      <c r="U417" s="19"/>
-      <c r="V417" s="19"/>
-      <c r="W417" s="19"/>
-      <c r="X417" s="19"/>
-      <c r="Y417" s="19"/>
-      <c r="Z417" s="19"/>
-      <c r="AA417" s="19"/>
-      <c r="AB417" s="19"/>
-    </row>
-    <row r="418" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="19"/>
-      <c r="B418" s="19">
-        <v>50001</v>
-      </c>
-      <c r="C418" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D418" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E418" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F418" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="G418" s="19">
-        <v>0</v>
-      </c>
-      <c r="H418" s="19">
-        <v>0</v>
-      </c>
-      <c r="I418" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J418" s="19">
-        <v>0</v>
-      </c>
-      <c r="K418" s="19">
-        <v>16</v>
-      </c>
-      <c r="L418" s="19">
-        <v>0</v>
-      </c>
-      <c r="M418" s="19">
-        <v>0</v>
-      </c>
-      <c r="N418" s="19">
-        <v>0</v>
-      </c>
-      <c r="O418" s="21">
-        <v>10</v>
-      </c>
-      <c r="P418" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q418" s="19">
-        <v>1</v>
-      </c>
-      <c r="R418" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="S418" s="19"/>
-      <c r="T418" s="19"/>
-      <c r="U418" s="19"/>
-      <c r="V418" s="19"/>
-      <c r="W418" s="19"/>
-      <c r="X418" s="19"/>
-      <c r="Y418" s="19"/>
-      <c r="Z418" s="19"/>
-      <c r="AA418" s="19"/>
-      <c r="AB418" s="19"/>
-    </row>
-    <row r="419" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="19"/>
-      <c r="B419" s="19">
-        <v>50002</v>
-      </c>
-      <c r="C419" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D419" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E419" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F419" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="G419" s="19">
-        <v>0</v>
-      </c>
-      <c r="H419" s="19">
-        <v>0</v>
-      </c>
-      <c r="I419" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J419" s="19">
-        <v>0</v>
-      </c>
-      <c r="K419" s="19">
-        <v>16</v>
-      </c>
-      <c r="L419" s="19">
-        <v>0</v>
-      </c>
-      <c r="M419" s="19">
-        <v>0</v>
-      </c>
-      <c r="N419" s="19">
-        <v>0</v>
-      </c>
-      <c r="O419" s="19">
-        <v>0</v>
-      </c>
-      <c r="P419" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q419" s="19">
-        <v>1</v>
-      </c>
-      <c r="R419" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="S419" s="19"/>
-      <c r="T419" s="19"/>
-      <c r="U419" s="19"/>
-      <c r="V419" s="19"/>
-      <c r="W419" s="19"/>
-      <c r="X419" s="19"/>
-      <c r="Y419" s="19"/>
-      <c r="Z419" s="19"/>
-      <c r="AA419" s="19"/>
-      <c r="AB419" s="19"/>
-    </row>
-    <row r="420" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="19"/>
-      <c r="B420" s="19">
-        <v>50003</v>
-      </c>
-      <c r="C420" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D420" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E420" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F420" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G420" s="19">
-        <v>0</v>
-      </c>
-      <c r="H420" s="19">
-        <v>0</v>
-      </c>
-      <c r="I420" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J420" s="19">
-        <v>0</v>
-      </c>
-      <c r="K420" s="19">
-        <v>16</v>
-      </c>
-      <c r="L420" s="19">
-        <v>0</v>
-      </c>
-      <c r="M420" s="19">
-        <v>0</v>
-      </c>
-      <c r="N420" s="19">
-        <v>0</v>
-      </c>
-      <c r="O420" s="19">
-        <v>0</v>
-      </c>
-      <c r="P420" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q420" s="19">
-        <v>1</v>
-      </c>
-      <c r="R420" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="S420" s="19"/>
-      <c r="T420" s="19"/>
-      <c r="U420" s="19"/>
-      <c r="V420" s="19"/>
-      <c r="W420" s="19"/>
-      <c r="X420" s="19"/>
-      <c r="Y420" s="19"/>
-      <c r="Z420" s="19"/>
-      <c r="AA420" s="19"/>
-      <c r="AB420" s="19"/>
-    </row>
-    <row r="421" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C421" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D421" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E421" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F421" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G421" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H421" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I421" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J421" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K421" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L421" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M421" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="N421" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="O421" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P421" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q421" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R421" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="S421" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="T421" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="U421" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="V421" s="10"/>
-      <c r="W421" s="10"/>
-      <c r="X421" s="10"/>
-      <c r="Y421" s="10"/>
-      <c r="Z421" s="10"/>
-      <c r="AA421" s="10"/>
-      <c r="AB421" s="10"/>
-    </row>
-    <row r="422" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B422" s="48">
-        <v>51000</v>
-      </c>
-      <c r="C422" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D422" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E422" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F422" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="G422" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H422" s="48">
-        <v>0</v>
-      </c>
-      <c r="I422" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J422" s="48">
-        <v>0</v>
-      </c>
-      <c r="K422" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L422" s="48">
-        <v>0</v>
-      </c>
-      <c r="M422" s="48">
-        <v>0</v>
-      </c>
-      <c r="N422" s="46">
-        <v>0</v>
-      </c>
-      <c r="O422" s="46">
-        <v>0</v>
-      </c>
-      <c r="P422" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q422" s="46">
-        <v>1</v>
-      </c>
-      <c r="R422" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S422" s="48">
-        <v>10</v>
-      </c>
-      <c r="T422" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="U422" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="48">
-        <v>51001</v>
-      </c>
-      <c r="C423" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D423" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E423" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F423" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="G423" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H423" s="48">
-        <v>0</v>
-      </c>
-      <c r="I423" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J423" s="48">
-        <v>0</v>
-      </c>
-      <c r="K423" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L423" s="48">
-        <v>0</v>
-      </c>
-      <c r="M423" s="48">
-        <v>0</v>
-      </c>
-      <c r="N423" s="46">
-        <v>0</v>
-      </c>
-      <c r="O423" s="46">
-        <v>0</v>
-      </c>
-      <c r="P423" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q423" s="46">
-        <v>1</v>
-      </c>
-      <c r="R423" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S423" s="48">
-        <v>20</v>
-      </c>
-      <c r="T423" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="U423" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B424" s="48">
-        <v>51002</v>
-      </c>
-      <c r="C424" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D424" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E424" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F424" s="48" t="s">
-        <v>645</v>
-      </c>
-      <c r="G424" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H424" s="48">
-        <v>0</v>
-      </c>
-      <c r="I424" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J424" s="48">
-        <v>0</v>
-      </c>
-      <c r="K424" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L424" s="48">
-        <v>0</v>
-      </c>
-      <c r="M424" s="48">
-        <v>0</v>
-      </c>
-      <c r="N424" s="46">
-        <v>0</v>
-      </c>
-      <c r="O424" s="46">
-        <v>0</v>
-      </c>
-      <c r="P424" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q424" s="46">
-        <v>1</v>
-      </c>
-      <c r="R424" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S424" s="48">
-        <v>30</v>
-      </c>
-      <c r="T424" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="U424" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B425" s="48">
-        <v>51003</v>
-      </c>
-      <c r="C425" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D425" s="48" t="s">
-        <v>641</v>
       </c>
       <c r="E425" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="F425" s="48" t="s">
-        <v>646</v>
-      </c>
-      <c r="G425" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H425" s="48">
-        <v>0</v>
-      </c>
-      <c r="I425" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J425" s="48">
-        <v>0</v>
-      </c>
-      <c r="K425" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L425" s="48">
-        <v>0</v>
-      </c>
-      <c r="M425" s="48">
-        <v>0</v>
-      </c>
-      <c r="N425" s="46">
-        <v>0</v>
-      </c>
-      <c r="O425" s="46">
-        <v>0</v>
-      </c>
-      <c r="P425" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q425" s="46">
-        <v>1</v>
-      </c>
-      <c r="R425" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S425" s="28">
-        <v>40</v>
-      </c>
-      <c r="T425" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="U425" s="28">
-        <v>2</v>
-      </c>
-      <c r="V425" s="28"/>
-    </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B426" s="48">
-        <v>51004</v>
-      </c>
-      <c r="C426" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D426" s="48" t="s">
-        <v>641</v>
+      <c r="F425" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G425" s="19">
+        <v>0</v>
+      </c>
+      <c r="H425" s="19">
+        <v>0</v>
+      </c>
+      <c r="I425" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J425" s="19">
+        <v>0</v>
+      </c>
+      <c r="K425" s="19">
+        <v>16</v>
+      </c>
+      <c r="L425" s="19">
+        <v>0</v>
+      </c>
+      <c r="M425" s="19">
+        <v>0</v>
+      </c>
+      <c r="N425" s="19">
+        <v>0</v>
+      </c>
+      <c r="O425" s="21">
+        <v>8</v>
+      </c>
+      <c r="P425" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q425" s="19">
+        <v>1</v>
+      </c>
+      <c r="R425" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="S425" s="19"/>
+      <c r="T425" s="19"/>
+      <c r="U425" s="19"/>
+      <c r="V425" s="19"/>
+      <c r="W425" s="19"/>
+      <c r="X425" s="19"/>
+      <c r="Y425" s="19"/>
+      <c r="Z425" s="19"/>
+      <c r="AA425" s="19"/>
+      <c r="AB425" s="19"/>
+    </row>
+    <row r="426" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="19"/>
+      <c r="B426" s="19">
+        <v>50001</v>
+      </c>
+      <c r="C426" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D426" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E426" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="F426" s="48" t="s">
-        <v>647</v>
-      </c>
-      <c r="G426" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H426" s="48">
-        <v>0</v>
-      </c>
-      <c r="I426" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J426" s="48">
-        <v>0</v>
-      </c>
-      <c r="K426" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L426" s="48">
-        <v>0</v>
-      </c>
-      <c r="M426" s="48">
-        <v>0</v>
-      </c>
-      <c r="N426" s="46">
-        <v>0</v>
-      </c>
-      <c r="O426" s="46">
-        <v>0</v>
-      </c>
-      <c r="P426" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q426" s="46">
-        <v>1</v>
-      </c>
-      <c r="R426" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S426" s="28">
-        <v>50</v>
-      </c>
-      <c r="T426" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="U426" s="28">
-        <v>2</v>
-      </c>
-      <c r="V426" s="28"/>
-    </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B427" s="48">
-        <v>51005</v>
-      </c>
-      <c r="C427" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D427" s="48" t="s">
-        <v>641</v>
+      <c r="F426" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G426" s="19">
+        <v>0</v>
+      </c>
+      <c r="H426" s="19">
+        <v>0</v>
+      </c>
+      <c r="I426" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J426" s="19">
+        <v>0</v>
+      </c>
+      <c r="K426" s="19">
+        <v>16</v>
+      </c>
+      <c r="L426" s="19">
+        <v>0</v>
+      </c>
+      <c r="M426" s="19">
+        <v>0</v>
+      </c>
+      <c r="N426" s="19">
+        <v>0</v>
+      </c>
+      <c r="O426" s="21">
+        <v>10</v>
+      </c>
+      <c r="P426" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q426" s="19">
+        <v>1</v>
+      </c>
+      <c r="R426" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="S426" s="19"/>
+      <c r="T426" s="19"/>
+      <c r="U426" s="19"/>
+      <c r="V426" s="19"/>
+      <c r="W426" s="19"/>
+      <c r="X426" s="19"/>
+      <c r="Y426" s="19"/>
+      <c r="Z426" s="19"/>
+      <c r="AA426" s="19"/>
+      <c r="AB426" s="19"/>
+    </row>
+    <row r="427" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="19"/>
+      <c r="B427" s="19">
+        <v>50002</v>
+      </c>
+      <c r="C427" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D427" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E427" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="F427" s="48" t="s">
-        <v>648</v>
-      </c>
-      <c r="G427" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H427" s="48">
-        <v>0</v>
-      </c>
-      <c r="I427" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J427" s="48">
-        <v>0</v>
-      </c>
-      <c r="K427" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L427" s="48">
-        <v>0</v>
-      </c>
-      <c r="M427" s="48">
-        <v>0</v>
-      </c>
-      <c r="N427" s="46">
-        <v>0</v>
-      </c>
-      <c r="O427" s="46">
-        <v>0</v>
-      </c>
-      <c r="P427" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q427" s="46">
-        <v>1</v>
-      </c>
-      <c r="R427" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S427" s="1">
-        <v>60</v>
-      </c>
-      <c r="T427" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="U427" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B428" s="48">
-        <v>51006</v>
-      </c>
-      <c r="C428" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D428" s="48" t="s">
-        <v>641</v>
+      <c r="F427" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="G427" s="19">
+        <v>0</v>
+      </c>
+      <c r="H427" s="19">
+        <v>0</v>
+      </c>
+      <c r="I427" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J427" s="19">
+        <v>0</v>
+      </c>
+      <c r="K427" s="19">
+        <v>16</v>
+      </c>
+      <c r="L427" s="19">
+        <v>0</v>
+      </c>
+      <c r="M427" s="19">
+        <v>0</v>
+      </c>
+      <c r="N427" s="19">
+        <v>0</v>
+      </c>
+      <c r="O427" s="19">
+        <v>0</v>
+      </c>
+      <c r="P427" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q427" s="19">
+        <v>1</v>
+      </c>
+      <c r="R427" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="S427" s="19"/>
+      <c r="T427" s="19"/>
+      <c r="U427" s="19"/>
+      <c r="V427" s="19"/>
+      <c r="W427" s="19"/>
+      <c r="X427" s="19"/>
+      <c r="Y427" s="19"/>
+      <c r="Z427" s="19"/>
+      <c r="AA427" s="19"/>
+      <c r="AB427" s="19"/>
+    </row>
+    <row r="428" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="19"/>
+      <c r="B428" s="19">
+        <v>50003</v>
+      </c>
+      <c r="C428" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D428" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E428" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="F428" s="48" t="s">
-        <v>649</v>
-      </c>
-      <c r="G428" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H428" s="48">
-        <v>0</v>
-      </c>
-      <c r="I428" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J428" s="48">
-        <v>0</v>
-      </c>
-      <c r="K428" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L428" s="48">
-        <v>0</v>
-      </c>
-      <c r="M428" s="48">
-        <v>0</v>
-      </c>
-      <c r="N428" s="46">
-        <v>0</v>
-      </c>
-      <c r="O428" s="46">
-        <v>0</v>
-      </c>
-      <c r="P428" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q428" s="46">
-        <v>1</v>
-      </c>
-      <c r="R428" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S428" s="1">
-        <v>70</v>
-      </c>
-      <c r="T428" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="U428" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B429" s="48">
-        <v>51007</v>
-      </c>
-      <c r="C429" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D429" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E429" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F429" s="48" t="s">
-        <v>650</v>
-      </c>
-      <c r="G429" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H429" s="48">
-        <v>0</v>
-      </c>
-      <c r="I429" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J429" s="48">
-        <v>0</v>
-      </c>
-      <c r="K429" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L429" s="48">
-        <v>0</v>
-      </c>
-      <c r="M429" s="48">
-        <v>0</v>
-      </c>
-      <c r="N429" s="46">
-        <v>0</v>
-      </c>
-      <c r="O429" s="46">
-        <v>0</v>
-      </c>
-      <c r="P429" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q429" s="46">
-        <v>1</v>
-      </c>
-      <c r="R429" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S429" s="1">
-        <v>80</v>
-      </c>
-      <c r="T429" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="U429" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F428" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G428" s="19">
+        <v>0</v>
+      </c>
+      <c r="H428" s="19">
+        <v>0</v>
+      </c>
+      <c r="I428" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J428" s="19">
+        <v>0</v>
+      </c>
+      <c r="K428" s="19">
+        <v>16</v>
+      </c>
+      <c r="L428" s="19">
+        <v>0</v>
+      </c>
+      <c r="M428" s="19">
+        <v>0</v>
+      </c>
+      <c r="N428" s="19">
+        <v>0</v>
+      </c>
+      <c r="O428" s="19">
+        <v>0</v>
+      </c>
+      <c r="P428" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q428" s="19">
+        <v>1</v>
+      </c>
+      <c r="R428" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="S428" s="19"/>
+      <c r="T428" s="19"/>
+      <c r="U428" s="19"/>
+      <c r="V428" s="19"/>
+      <c r="W428" s="19"/>
+      <c r="X428" s="19"/>
+      <c r="Y428" s="19"/>
+      <c r="Z428" s="19"/>
+      <c r="AA428" s="19"/>
+      <c r="AB428" s="19"/>
+    </row>
+    <row r="429" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D429" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E429" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G429" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H429" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I429" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J429" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K429" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L429" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M429" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N429" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O429" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P429" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q429" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R429" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="S429" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="T429" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="U429" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="V429" s="10"/>
+      <c r="W429" s="10"/>
+      <c r="X429" s="10"/>
+      <c r="Y429" s="10"/>
+      <c r="Z429" s="10"/>
+      <c r="AA429" s="10"/>
+      <c r="AB429" s="10"/>
+    </row>
+    <row r="430" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B430" s="48">
-        <v>51008</v>
+        <v>51000</v>
       </c>
       <c r="C430" s="48" t="s">
         <v>641</v>
@@ -37712,7 +38636,7 @@
         <v>721</v>
       </c>
       <c r="F430" s="48" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="G430" s="28" t="s">
         <v>263</v>
@@ -37750,19 +38674,19 @@
       <c r="R430" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S430" s="1">
-        <v>90</v>
-      </c>
-      <c r="T430" s="1" t="s">
+      <c r="S430" s="48">
+        <v>10</v>
+      </c>
+      <c r="T430" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="U430" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U430" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B431" s="48">
-        <v>51009</v>
+        <v>51001</v>
       </c>
       <c r="C431" s="48" t="s">
         <v>641</v>
@@ -37774,7 +38698,7 @@
         <v>721</v>
       </c>
       <c r="F431" s="48" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G431" s="28" t="s">
         <v>263</v>
@@ -37812,19 +38736,19 @@
       <c r="R431" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S431" s="1">
-        <v>100</v>
-      </c>
-      <c r="T431" s="1" t="s">
+      <c r="S431" s="48">
+        <v>20</v>
+      </c>
+      <c r="T431" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="U431" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U431" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B432" s="48">
-        <v>51010</v>
+        <v>51002</v>
       </c>
       <c r="C432" s="48" t="s">
         <v>641</v>
@@ -37836,7 +38760,7 @@
         <v>721</v>
       </c>
       <c r="F432" s="48" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="G432" s="28" t="s">
         <v>263</v>
@@ -37874,19 +38798,19 @@
       <c r="R432" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S432" s="1">
-        <v>110</v>
-      </c>
-      <c r="T432" s="1" t="s">
+      <c r="S432" s="48">
+        <v>30</v>
+      </c>
+      <c r="T432" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="U432" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U432" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B433" s="48">
-        <v>51011</v>
+        <v>51003</v>
       </c>
       <c r="C433" s="48" t="s">
         <v>641</v>
@@ -37898,7 +38822,7 @@
         <v>721</v>
       </c>
       <c r="F433" s="48" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G433" s="28" t="s">
         <v>263</v>
@@ -37936,19 +38860,20 @@
       <c r="R433" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S433" s="1">
-        <v>120</v>
-      </c>
-      <c r="T433" s="1" t="s">
+      <c r="S433" s="28">
+        <v>40</v>
+      </c>
+      <c r="T433" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="U433" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U433" s="28">
+        <v>2</v>
+      </c>
+      <c r="V433" s="28"/>
+    </row>
+    <row r="434" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B434" s="48">
-        <v>51012</v>
+        <v>51004</v>
       </c>
       <c r="C434" s="48" t="s">
         <v>641</v>
@@ -37960,7 +38885,7 @@
         <v>721</v>
       </c>
       <c r="F434" s="48" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G434" s="28" t="s">
         <v>263</v>
@@ -37998,19 +38923,20 @@
       <c r="R434" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S434" s="1">
-        <v>130</v>
-      </c>
-      <c r="T434" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="U434" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="S434" s="28">
+        <v>50</v>
+      </c>
+      <c r="T434" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="U434" s="28">
+        <v>2</v>
+      </c>
+      <c r="V434" s="28"/>
+    </row>
+    <row r="435" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B435" s="48">
-        <v>51013</v>
+        <v>51005</v>
       </c>
       <c r="C435" s="48" t="s">
         <v>641</v>
@@ -38022,7 +38948,7 @@
         <v>721</v>
       </c>
       <c r="F435" s="48" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G435" s="28" t="s">
         <v>263</v>
@@ -38061,18 +38987,18 @@
         <v>643</v>
       </c>
       <c r="S435" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="T435" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U435" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="2:21" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B436" s="48">
-        <v>51014</v>
+        <v>51006</v>
       </c>
       <c r="C436" s="48" t="s">
         <v>641</v>
@@ -38084,7 +39010,7 @@
         <v>721</v>
       </c>
       <c r="F436" s="48" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="G436" s="28" t="s">
         <v>263</v>
@@ -38123,18 +39049,18 @@
         <v>643</v>
       </c>
       <c r="S436" s="1">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="T436" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U436" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="2:21" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B437" s="48">
-        <v>51015</v>
+        <v>51007</v>
       </c>
       <c r="C437" s="48" t="s">
         <v>641</v>
@@ -38146,7 +39072,7 @@
         <v>721</v>
       </c>
       <c r="F437" s="48" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G437" s="28" t="s">
         <v>263</v>
@@ -38185,18 +39111,18 @@
         <v>643</v>
       </c>
       <c r="S437" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T437" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U437" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="2:21" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B438" s="48">
-        <v>51016</v>
+        <v>51008</v>
       </c>
       <c r="C438" s="48" t="s">
         <v>641</v>
@@ -38208,7 +39134,7 @@
         <v>721</v>
       </c>
       <c r="F438" s="48" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G438" s="28" t="s">
         <v>263</v>
@@ -38247,18 +39173,18 @@
         <v>643</v>
       </c>
       <c r="S438" s="1">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="T438" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U438" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="2:21" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B439" s="48">
-        <v>51017</v>
+        <v>51009</v>
       </c>
       <c r="C439" s="48" t="s">
         <v>641</v>
@@ -38270,7 +39196,7 @@
         <v>721</v>
       </c>
       <c r="F439" s="48" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G439" s="28" t="s">
         <v>263</v>
@@ -38309,18 +39235,18 @@
         <v>643</v>
       </c>
       <c r="S439" s="1">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="T439" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U439" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="2:21" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B440" s="48">
-        <v>51018</v>
+        <v>51010</v>
       </c>
       <c r="C440" s="48" t="s">
         <v>641</v>
@@ -38332,7 +39258,7 @@
         <v>721</v>
       </c>
       <c r="F440" s="48" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G440" s="28" t="s">
         <v>263</v>
@@ -38371,18 +39297,18 @@
         <v>643</v>
       </c>
       <c r="S440" s="1">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="T440" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U440" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="2:21" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B441" s="48">
-        <v>51019</v>
+        <v>51011</v>
       </c>
       <c r="C441" s="48" t="s">
         <v>641</v>
@@ -38394,7 +39320,7 @@
         <v>721</v>
       </c>
       <c r="F441" s="48" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G441" s="28" t="s">
         <v>263</v>
@@ -38433,18 +39359,18 @@
         <v>643</v>
       </c>
       <c r="S441" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="T441" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U441" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="2:21" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B442" s="48">
-        <v>51020</v>
+        <v>51012</v>
       </c>
       <c r="C442" s="48" t="s">
         <v>641</v>
@@ -38456,7 +39382,7 @@
         <v>721</v>
       </c>
       <c r="F442" s="48" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G442" s="28" t="s">
         <v>263</v>
@@ -38495,18 +39421,18 @@
         <v>643</v>
       </c>
       <c r="S442" s="1">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="T442" s="1" t="s">
-        <v>416</v>
+        <v>749</v>
       </c>
       <c r="U442" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="2:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B443" s="48">
-        <v>51021</v>
+        <v>51013</v>
       </c>
       <c r="C443" s="48" t="s">
         <v>641</v>
@@ -38518,7 +39444,7 @@
         <v>721</v>
       </c>
       <c r="F443" s="48" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="G443" s="28" t="s">
         <v>263</v>
@@ -38533,7 +39459,7 @@
         <v>0</v>
       </c>
       <c r="K443" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L443" s="48">
         <v>0</v>
@@ -38557,18 +39483,18 @@
         <v>643</v>
       </c>
       <c r="S443" s="1">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="T443" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U443" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="2:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B444" s="48">
-        <v>51022</v>
+        <v>51014</v>
       </c>
       <c r="C444" s="48" t="s">
         <v>641</v>
@@ -38580,7 +39506,7 @@
         <v>721</v>
       </c>
       <c r="F444" s="48" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G444" s="28" t="s">
         <v>263</v>
@@ -38595,7 +39521,7 @@
         <v>0</v>
       </c>
       <c r="K444" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L444" s="48">
         <v>0</v>
@@ -38619,18 +39545,18 @@
         <v>643</v>
       </c>
       <c r="S444" s="1">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="T444" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U444" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="2:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B445" s="48">
-        <v>51023</v>
+        <v>51015</v>
       </c>
       <c r="C445" s="48" t="s">
         <v>641</v>
@@ -38642,7 +39568,7 @@
         <v>721</v>
       </c>
       <c r="F445" s="48" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="G445" s="28" t="s">
         <v>263</v>
@@ -38657,7 +39583,7 @@
         <v>0</v>
       </c>
       <c r="K445" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L445" s="48">
         <v>0</v>
@@ -38681,18 +39607,18 @@
         <v>643</v>
       </c>
       <c r="S445" s="1">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="T445" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U445" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="2:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B446" s="48">
-        <v>51024</v>
+        <v>51016</v>
       </c>
       <c r="C446" s="48" t="s">
         <v>641</v>
@@ -38704,7 +39630,7 @@
         <v>721</v>
       </c>
       <c r="F446" s="48" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G446" s="28" t="s">
         <v>263</v>
@@ -38719,7 +39645,7 @@
         <v>0</v>
       </c>
       <c r="K446" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L446" s="48">
         <v>0</v>
@@ -38743,18 +39669,18 @@
         <v>643</v>
       </c>
       <c r="S446" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="T446" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U446" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="2:21" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B447" s="48">
-        <v>51025</v>
+        <v>51017</v>
       </c>
       <c r="C447" s="48" t="s">
         <v>641</v>
@@ -38766,7 +39692,7 @@
         <v>721</v>
       </c>
       <c r="F447" s="48" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="G447" s="28" t="s">
         <v>263</v>
@@ -38781,7 +39707,7 @@
         <v>0</v>
       </c>
       <c r="K447" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L447" s="48">
         <v>0</v>
@@ -38805,18 +39731,18 @@
         <v>643</v>
       </c>
       <c r="S447" s="1">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="T447" s="1" t="s">
-        <v>667</v>
+        <v>416</v>
       </c>
       <c r="U447" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="2:21" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B448" s="48">
-        <v>51026</v>
+        <v>51018</v>
       </c>
       <c r="C448" s="48" t="s">
         <v>641</v>
@@ -38828,7 +39754,7 @@
         <v>721</v>
       </c>
       <c r="F448" s="48" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G448" s="28" t="s">
         <v>263</v>
@@ -38843,7 +39769,7 @@
         <v>0</v>
       </c>
       <c r="K448" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L448" s="48">
         <v>0</v>
@@ -38867,18 +39793,18 @@
         <v>643</v>
       </c>
       <c r="S448" s="1">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="T448" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U448" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B449" s="48">
-        <v>51027</v>
+        <v>51019</v>
       </c>
       <c r="C449" s="48" t="s">
         <v>641</v>
@@ -38890,7 +39816,7 @@
         <v>721</v>
       </c>
       <c r="F449" s="48" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="G449" s="28" t="s">
         <v>263</v>
@@ -38905,7 +39831,7 @@
         <v>0</v>
       </c>
       <c r="K449" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L449" s="48">
         <v>0</v>
@@ -38929,18 +39855,18 @@
         <v>643</v>
       </c>
       <c r="S449" s="1">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="T449" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U449" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B450" s="48">
-        <v>51028</v>
+        <v>51020</v>
       </c>
       <c r="C450" s="48" t="s">
         <v>641</v>
@@ -38952,7 +39878,7 @@
         <v>721</v>
       </c>
       <c r="F450" s="48" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G450" s="28" t="s">
         <v>263</v>
@@ -38967,7 +39893,7 @@
         <v>0</v>
       </c>
       <c r="K450" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L450" s="48">
         <v>0</v>
@@ -38991,18 +39917,18 @@
         <v>643</v>
       </c>
       <c r="S450" s="1">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="T450" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U450" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B451" s="48">
-        <v>51029</v>
+        <v>51021</v>
       </c>
       <c r="C451" s="48" t="s">
         <v>641</v>
@@ -39014,7 +39940,7 @@
         <v>721</v>
       </c>
       <c r="F451" s="48" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G451" s="28" t="s">
         <v>263</v>
@@ -39053,18 +39979,18 @@
         <v>643</v>
       </c>
       <c r="S451" s="1">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="T451" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U451" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B452" s="48">
-        <v>51030</v>
+        <v>51022</v>
       </c>
       <c r="C452" s="48" t="s">
         <v>641</v>
@@ -39076,7 +40002,7 @@
         <v>721</v>
       </c>
       <c r="F452" s="48" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G452" s="28" t="s">
         <v>263</v>
@@ -39115,18 +40041,18 @@
         <v>643</v>
       </c>
       <c r="S452" s="1">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="T452" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U452" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B453" s="48">
-        <v>51031</v>
+        <v>51023</v>
       </c>
       <c r="C453" s="48" t="s">
         <v>641</v>
@@ -39138,7 +40064,7 @@
         <v>721</v>
       </c>
       <c r="F453" s="48" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G453" s="28" t="s">
         <v>263</v>
@@ -39177,18 +40103,18 @@
         <v>643</v>
       </c>
       <c r="S453" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="T453" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U453" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B454" s="48">
-        <v>51032</v>
+        <v>51024</v>
       </c>
       <c r="C454" s="48" t="s">
         <v>641</v>
@@ -39200,7 +40126,7 @@
         <v>721</v>
       </c>
       <c r="F454" s="48" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G454" s="28" t="s">
         <v>263</v>
@@ -39239,18 +40165,18 @@
         <v>643</v>
       </c>
       <c r="S454" s="1">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="T454" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U454" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B455" s="48">
-        <v>51033</v>
+        <v>51025</v>
       </c>
       <c r="C455" s="48" t="s">
         <v>641</v>
@@ -39262,7 +40188,7 @@
         <v>721</v>
       </c>
       <c r="F455" s="48" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G455" s="28" t="s">
         <v>263</v>
@@ -39301,18 +40227,18 @@
         <v>643</v>
       </c>
       <c r="S455" s="1">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="T455" s="1" t="s">
-        <v>418</v>
+        <v>667</v>
       </c>
       <c r="U455" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B456" s="48">
-        <v>51034</v>
+        <v>51026</v>
       </c>
       <c r="C456" s="48" t="s">
         <v>641</v>
@@ -39324,7 +40250,7 @@
         <v>721</v>
       </c>
       <c r="F456" s="48" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G456" s="28" t="s">
         <v>263</v>
@@ -39363,18 +40289,18 @@
         <v>643</v>
       </c>
       <c r="S456" s="1">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="T456" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U456" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B457" s="48">
-        <v>51035</v>
+        <v>51027</v>
       </c>
       <c r="C457" s="48" t="s">
         <v>641</v>
@@ -39386,7 +40312,7 @@
         <v>721</v>
       </c>
       <c r="F457" s="48" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G457" s="28" t="s">
         <v>263</v>
@@ -39425,18 +40351,18 @@
         <v>643</v>
       </c>
       <c r="S457" s="1">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="T457" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U457" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B458" s="48">
-        <v>51036</v>
+        <v>51028</v>
       </c>
       <c r="C458" s="48" t="s">
         <v>641</v>
@@ -39448,7 +40374,7 @@
         <v>721</v>
       </c>
       <c r="F458" s="48" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G458" s="28" t="s">
         <v>263</v>
@@ -39487,18 +40413,18 @@
         <v>643</v>
       </c>
       <c r="S458" s="1">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="T458" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U458" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B459" s="48">
-        <v>51037</v>
+        <v>51029</v>
       </c>
       <c r="C459" s="48" t="s">
         <v>641</v>
@@ -39510,7 +40436,7 @@
         <v>721</v>
       </c>
       <c r="F459" s="48" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G459" s="28" t="s">
         <v>263</v>
@@ -39549,18 +40475,18 @@
         <v>643</v>
       </c>
       <c r="S459" s="1">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="T459" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U459" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B460" s="48">
-        <v>51038</v>
+        <v>51030</v>
       </c>
       <c r="C460" s="48" t="s">
         <v>641</v>
@@ -39572,7 +40498,7 @@
         <v>721</v>
       </c>
       <c r="F460" s="48" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G460" s="28" t="s">
         <v>263</v>
@@ -39611,18 +40537,18 @@
         <v>643</v>
       </c>
       <c r="S460" s="1">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="T460" s="1" t="s">
-        <v>668</v>
+        <v>418</v>
       </c>
       <c r="U460" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B461" s="48">
-        <v>51039</v>
+        <v>51031</v>
       </c>
       <c r="C461" s="48" t="s">
         <v>641</v>
@@ -39634,7 +40560,7 @@
         <v>721</v>
       </c>
       <c r="F461" s="48" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G461" s="28" t="s">
         <v>263</v>
@@ -39673,18 +40599,18 @@
         <v>643</v>
       </c>
       <c r="S461" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="T461" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U461" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B462" s="48">
-        <v>51040</v>
+        <v>51032</v>
       </c>
       <c r="C462" s="48" t="s">
         <v>641</v>
@@ -39696,7 +40622,7 @@
         <v>721</v>
       </c>
       <c r="F462" s="48" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G462" s="28" t="s">
         <v>263</v>
@@ -39735,18 +40661,18 @@
         <v>643</v>
       </c>
       <c r="S462" s="1">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="T462" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U462" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B463" s="48">
-        <v>51041</v>
+        <v>51033</v>
       </c>
       <c r="C463" s="48" t="s">
         <v>641</v>
@@ -39758,7 +40684,7 @@
         <v>721</v>
       </c>
       <c r="F463" s="48" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="G463" s="28" t="s">
         <v>263</v>
@@ -39797,18 +40723,18 @@
         <v>643</v>
       </c>
       <c r="S463" s="1">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="T463" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U463" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B464" s="48">
-        <v>51042</v>
+        <v>51034</v>
       </c>
       <c r="C464" s="48" t="s">
         <v>641</v>
@@ -39820,7 +40746,7 @@
         <v>721</v>
       </c>
       <c r="F464" s="48" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G464" s="28" t="s">
         <v>263</v>
@@ -39859,18 +40785,18 @@
         <v>643</v>
       </c>
       <c r="S464" s="1">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="T464" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U464" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B465" s="48">
-        <v>51043</v>
+        <v>51035</v>
       </c>
       <c r="C465" s="48" t="s">
         <v>641</v>
@@ -39882,7 +40808,7 @@
         <v>721</v>
       </c>
       <c r="F465" s="48" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="G465" s="28" t="s">
         <v>263</v>
@@ -39921,18 +40847,18 @@
         <v>643</v>
       </c>
       <c r="S465" s="1">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="T465" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U465" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B466" s="48">
-        <v>51044</v>
+        <v>51036</v>
       </c>
       <c r="C466" s="48" t="s">
         <v>641</v>
@@ -39944,7 +40870,7 @@
         <v>721</v>
       </c>
       <c r="F466" s="48" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G466" s="28" t="s">
         <v>263</v>
@@ -39983,18 +40909,18 @@
         <v>643</v>
       </c>
       <c r="S466" s="1">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="T466" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U466" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B467" s="48">
-        <v>51045</v>
+        <v>51037</v>
       </c>
       <c r="C467" s="48" t="s">
         <v>641</v>
@@ -40006,7 +40932,7 @@
         <v>721</v>
       </c>
       <c r="F467" s="48" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G467" s="28" t="s">
         <v>263</v>
@@ -40045,18 +40971,18 @@
         <v>643</v>
       </c>
       <c r="S467" s="1">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="T467" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U467" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B468" s="48">
-        <v>51046</v>
+        <v>51038</v>
       </c>
       <c r="C468" s="48" t="s">
         <v>641</v>
@@ -40068,7 +40994,7 @@
         <v>721</v>
       </c>
       <c r="F468" s="48" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G468" s="28" t="s">
         <v>263</v>
@@ -40107,18 +41033,18 @@
         <v>643</v>
       </c>
       <c r="S468" s="1">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="T468" s="1" t="s">
-        <v>420</v>
+        <v>668</v>
       </c>
       <c r="U468" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B469" s="48">
-        <v>51047</v>
+        <v>51039</v>
       </c>
       <c r="C469" s="48" t="s">
         <v>641</v>
@@ -40130,7 +41056,7 @@
         <v>721</v>
       </c>
       <c r="F469" s="48" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G469" s="28" t="s">
         <v>263</v>
@@ -40169,18 +41095,18 @@
         <v>643</v>
       </c>
       <c r="S469" s="1">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="T469" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U469" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B470" s="48">
-        <v>51048</v>
+        <v>51040</v>
       </c>
       <c r="C470" s="48" t="s">
         <v>641</v>
@@ -40192,7 +41118,7 @@
         <v>721</v>
       </c>
       <c r="F470" s="48" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G470" s="28" t="s">
         <v>263</v>
@@ -40231,18 +41157,18 @@
         <v>643</v>
       </c>
       <c r="S470" s="1">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="T470" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U470" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B471" s="48">
-        <v>51049</v>
+        <v>51041</v>
       </c>
       <c r="C471" s="48" t="s">
         <v>641</v>
@@ -40254,7 +41180,7 @@
         <v>721</v>
       </c>
       <c r="F471" s="48" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="G471" s="28" t="s">
         <v>263</v>
@@ -40293,18 +41219,18 @@
         <v>643</v>
       </c>
       <c r="S471" s="1">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="T471" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U471" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B472" s="48">
-        <v>51050</v>
+        <v>51042</v>
       </c>
       <c r="C472" s="48" t="s">
         <v>641</v>
@@ -40316,7 +41242,7 @@
         <v>721</v>
       </c>
       <c r="F472" s="48" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G472" s="28" t="s">
         <v>263</v>
@@ -40355,18 +41281,18 @@
         <v>643</v>
       </c>
       <c r="S472" s="1">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="T472" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U472" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B473" s="48">
-        <v>51051</v>
+        <v>51043</v>
       </c>
       <c r="C473" s="48" t="s">
         <v>641</v>
@@ -40378,7 +41304,7 @@
         <v>721</v>
       </c>
       <c r="F473" s="48" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G473" s="28" t="s">
         <v>263</v>
@@ -40417,18 +41343,18 @@
         <v>643</v>
       </c>
       <c r="S473" s="1">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="T473" s="1" t="s">
-        <v>669</v>
+        <v>420</v>
       </c>
       <c r="U473" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B474" s="48">
-        <v>51052</v>
+        <v>51044</v>
       </c>
       <c r="C474" s="48" t="s">
         <v>641</v>
@@ -40440,7 +41366,7 @@
         <v>721</v>
       </c>
       <c r="F474" s="48" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G474" s="28" t="s">
         <v>263</v>
@@ -40479,18 +41405,18 @@
         <v>643</v>
       </c>
       <c r="S474" s="1">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="T474" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U474" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B475" s="48">
-        <v>51053</v>
+        <v>51045</v>
       </c>
       <c r="C475" s="48" t="s">
         <v>641</v>
@@ -40502,7 +41428,7 @@
         <v>721</v>
       </c>
       <c r="F475" s="48" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G475" s="28" t="s">
         <v>263</v>
@@ -40541,18 +41467,18 @@
         <v>643</v>
       </c>
       <c r="S475" s="1">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="T475" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U475" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B476" s="48">
-        <v>51054</v>
+        <v>51046</v>
       </c>
       <c r="C476" s="48" t="s">
         <v>641</v>
@@ -40564,7 +41490,7 @@
         <v>721</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G476" s="28" t="s">
         <v>263</v>
@@ -40603,18 +41529,18 @@
         <v>643</v>
       </c>
       <c r="S476" s="1">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="T476" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U476" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B477" s="48">
-        <v>51055</v>
+        <v>51047</v>
       </c>
       <c r="C477" s="48" t="s">
         <v>641</v>
@@ -40626,7 +41552,7 @@
         <v>721</v>
       </c>
       <c r="F477" s="48" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G477" s="28" t="s">
         <v>263</v>
@@ -40665,18 +41591,18 @@
         <v>643</v>
       </c>
       <c r="S477" s="1">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="T477" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U477" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B478" s="48">
-        <v>51056</v>
+        <v>51048</v>
       </c>
       <c r="C478" s="48" t="s">
         <v>641</v>
@@ -40688,7 +41614,7 @@
         <v>721</v>
       </c>
       <c r="F478" s="48" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G478" s="28" t="s">
         <v>263</v>
@@ -40727,18 +41653,18 @@
         <v>643</v>
       </c>
       <c r="S478" s="1">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="T478" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U478" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B479" s="48">
-        <v>51057</v>
+        <v>51049</v>
       </c>
       <c r="C479" s="48" t="s">
         <v>641</v>
@@ -40750,7 +41676,7 @@
         <v>721</v>
       </c>
       <c r="F479" s="48" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="G479" s="28" t="s">
         <v>263</v>
@@ -40789,18 +41715,18 @@
         <v>643</v>
       </c>
       <c r="S479" s="1">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="T479" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U479" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B480" s="48">
-        <v>51058</v>
+        <v>51050</v>
       </c>
       <c r="C480" s="48" t="s">
         <v>641</v>
@@ -40812,7 +41738,7 @@
         <v>721</v>
       </c>
       <c r="F480" s="48" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G480" s="28" t="s">
         <v>263</v>
@@ -40851,18 +41777,18 @@
         <v>643</v>
       </c>
       <c r="S480" s="1">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="T480" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U480" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B481" s="48">
-        <v>51059</v>
+        <v>51051</v>
       </c>
       <c r="C481" s="48" t="s">
         <v>641</v>
@@ -40874,7 +41800,7 @@
         <v>721</v>
       </c>
       <c r="F481" s="48" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="G481" s="28" t="s">
         <v>263</v>
@@ -40913,18 +41839,18 @@
         <v>643</v>
       </c>
       <c r="S481" s="1">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="T481" s="1" t="s">
-        <v>422</v>
+        <v>669</v>
       </c>
       <c r="U481" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B482" s="48">
-        <v>51060</v>
+        <v>51052</v>
       </c>
       <c r="C482" s="48" t="s">
         <v>641</v>
@@ -40936,7 +41862,7 @@
         <v>721</v>
       </c>
       <c r="F482" s="48" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G482" s="28" t="s">
         <v>263</v>
@@ -40975,18 +41901,18 @@
         <v>643</v>
       </c>
       <c r="S482" s="1">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="T482" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U482" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B483" s="48">
-        <v>51061</v>
+        <v>51053</v>
       </c>
       <c r="C483" s="48" t="s">
         <v>641</v>
@@ -40998,7 +41924,7 @@
         <v>721</v>
       </c>
       <c r="F483" s="48" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="G483" s="28" t="s">
         <v>263</v>
@@ -41037,18 +41963,18 @@
         <v>643</v>
       </c>
       <c r="S483" s="1">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="T483" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U483" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B484" s="48">
-        <v>51062</v>
+        <v>51054</v>
       </c>
       <c r="C484" s="48" t="s">
         <v>641</v>
@@ -41060,7 +41986,7 @@
         <v>721</v>
       </c>
       <c r="F484" s="48" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G484" s="28" t="s">
         <v>263</v>
@@ -41099,30 +42025,30 @@
         <v>643</v>
       </c>
       <c r="S484" s="1">
-        <v>630</v>
+        <v>550</v>
       </c>
       <c r="T484" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U484" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B485" s="48">
-        <v>51063</v>
+        <v>51055</v>
       </c>
       <c r="C485" s="48" t="s">
         <v>641</v>
       </c>
       <c r="D485" s="48" t="s">
-        <v>726</v>
+        <v>641</v>
       </c>
       <c r="E485" s="48" t="s">
         <v>721</v>
       </c>
       <c r="F485" s="48" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="G485" s="28" t="s">
         <v>263</v>
@@ -41161,30 +42087,30 @@
         <v>643</v>
       </c>
       <c r="S485" s="1">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="T485" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U485" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B486" s="48">
-        <v>51064</v>
+        <v>51056</v>
       </c>
       <c r="C486" s="48" t="s">
         <v>641</v>
       </c>
       <c r="D486" s="48" t="s">
-        <v>727</v>
+        <v>641</v>
       </c>
       <c r="E486" s="48" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F486" s="48" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G486" s="28" t="s">
         <v>263</v>
@@ -41223,12 +42149,508 @@
         <v>643</v>
       </c>
       <c r="S486" s="1">
+        <v>570</v>
+      </c>
+      <c r="T486" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U486" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B487" s="48">
+        <v>51057</v>
+      </c>
+      <c r="C487" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D487" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="E487" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F487" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="G487" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H487" s="48">
+        <v>0</v>
+      </c>
+      <c r="I487" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J487" s="48">
+        <v>0</v>
+      </c>
+      <c r="K487" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L487" s="48">
+        <v>0</v>
+      </c>
+      <c r="M487" s="48">
+        <v>0</v>
+      </c>
+      <c r="N487" s="46">
+        <v>0</v>
+      </c>
+      <c r="O487" s="46">
+        <v>0</v>
+      </c>
+      <c r="P487" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q487" s="46">
+        <v>1</v>
+      </c>
+      <c r="R487" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S487" s="1">
+        <v>580</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U487" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B488" s="48">
+        <v>51058</v>
+      </c>
+      <c r="C488" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D488" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="E488" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F488" s="48" t="s">
+        <v>708</v>
+      </c>
+      <c r="G488" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H488" s="48">
+        <v>0</v>
+      </c>
+      <c r="I488" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J488" s="48">
+        <v>0</v>
+      </c>
+      <c r="K488" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L488" s="48">
+        <v>0</v>
+      </c>
+      <c r="M488" s="48">
+        <v>0</v>
+      </c>
+      <c r="N488" s="46">
+        <v>0</v>
+      </c>
+      <c r="O488" s="46">
+        <v>0</v>
+      </c>
+      <c r="P488" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q488" s="46">
+        <v>1</v>
+      </c>
+      <c r="R488" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S488" s="1">
+        <v>590</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U488" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B489" s="48">
+        <v>51059</v>
+      </c>
+      <c r="C489" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D489" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="E489" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F489" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="G489" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H489" s="48">
+        <v>0</v>
+      </c>
+      <c r="I489" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J489" s="48">
+        <v>0</v>
+      </c>
+      <c r="K489" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L489" s="48">
+        <v>0</v>
+      </c>
+      <c r="M489" s="48">
+        <v>0</v>
+      </c>
+      <c r="N489" s="46">
+        <v>0</v>
+      </c>
+      <c r="O489" s="46">
+        <v>0</v>
+      </c>
+      <c r="P489" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q489" s="46">
+        <v>1</v>
+      </c>
+      <c r="R489" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S489" s="1">
+        <v>600</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U489" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B490" s="48">
+        <v>51060</v>
+      </c>
+      <c r="C490" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D490" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="E490" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F490" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="G490" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H490" s="48">
+        <v>0</v>
+      </c>
+      <c r="I490" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J490" s="48">
+        <v>0</v>
+      </c>
+      <c r="K490" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L490" s="48">
+        <v>0</v>
+      </c>
+      <c r="M490" s="48">
+        <v>0</v>
+      </c>
+      <c r="N490" s="46">
+        <v>0</v>
+      </c>
+      <c r="O490" s="46">
+        <v>0</v>
+      </c>
+      <c r="P490" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q490" s="46">
+        <v>1</v>
+      </c>
+      <c r="R490" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S490" s="1">
+        <v>610</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U490" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B491" s="48">
+        <v>51061</v>
+      </c>
+      <c r="C491" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D491" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="E491" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F491" s="48" t="s">
+        <v>711</v>
+      </c>
+      <c r="G491" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H491" s="48">
+        <v>0</v>
+      </c>
+      <c r="I491" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J491" s="48">
+        <v>0</v>
+      </c>
+      <c r="K491" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L491" s="48">
+        <v>0</v>
+      </c>
+      <c r="M491" s="48">
+        <v>0</v>
+      </c>
+      <c r="N491" s="46">
+        <v>0</v>
+      </c>
+      <c r="O491" s="46">
+        <v>0</v>
+      </c>
+      <c r="P491" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q491" s="46">
+        <v>1</v>
+      </c>
+      <c r="R491" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S491" s="1">
+        <v>620</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U491" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B492" s="48">
+        <v>51062</v>
+      </c>
+      <c r="C492" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D492" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="E492" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F492" s="48" t="s">
+        <v>712</v>
+      </c>
+      <c r="G492" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H492" s="48">
+        <v>0</v>
+      </c>
+      <c r="I492" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J492" s="48">
+        <v>0</v>
+      </c>
+      <c r="K492" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L492" s="48">
+        <v>0</v>
+      </c>
+      <c r="M492" s="48">
+        <v>0</v>
+      </c>
+      <c r="N492" s="46">
+        <v>0</v>
+      </c>
+      <c r="O492" s="46">
+        <v>0</v>
+      </c>
+      <c r="P492" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q492" s="46">
+        <v>1</v>
+      </c>
+      <c r="R492" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S492" s="1">
+        <v>630</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U492" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B493" s="48">
+        <v>51063</v>
+      </c>
+      <c r="C493" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D493" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="E493" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F493" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="G493" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H493" s="48">
+        <v>0</v>
+      </c>
+      <c r="I493" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J493" s="48">
+        <v>0</v>
+      </c>
+      <c r="K493" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L493" s="48">
+        <v>0</v>
+      </c>
+      <c r="M493" s="48">
+        <v>0</v>
+      </c>
+      <c r="N493" s="46">
+        <v>0</v>
+      </c>
+      <c r="O493" s="46">
+        <v>0</v>
+      </c>
+      <c r="P493" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q493" s="46">
+        <v>1</v>
+      </c>
+      <c r="R493" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S493" s="1">
+        <v>640</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U493" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B494" s="48">
+        <v>51064</v>
+      </c>
+      <c r="C494" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D494" s="48" t="s">
+        <v>727</v>
+      </c>
+      <c r="E494" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="F494" s="48" t="s">
+        <v>714</v>
+      </c>
+      <c r="G494" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H494" s="48">
+        <v>0</v>
+      </c>
+      <c r="I494" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J494" s="48">
+        <v>0</v>
+      </c>
+      <c r="K494" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L494" s="48">
+        <v>0</v>
+      </c>
+      <c r="M494" s="48">
+        <v>0</v>
+      </c>
+      <c r="N494" s="46">
+        <v>0</v>
+      </c>
+      <c r="O494" s="46">
+        <v>0</v>
+      </c>
+      <c r="P494" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q494" s="46">
+        <v>1</v>
+      </c>
+      <c r="R494" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S494" s="1">
         <v>650</v>
       </c>
-      <c r="T486" s="1" t="s">
+      <c r="T494" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="U486" s="1">
+      <c r="U494" s="1">
         <v>1</v>
       </c>
     </row>
